--- a/결과물/WBS.xlsx
+++ b/결과물/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Desktop/boostcamp_git_exmaple/gitflowex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Desktop/boostcamp_git_exmaple/gitflowex/결과물/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9507570-8183-3847-8877-06BD543C8E07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09095C4-8A2D-FB43-91E1-5072D722FD73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1091,81 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,21 +1175,6 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,69 +1182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1525,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1550,34 +1547,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="97" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1690,16 +1687,16 @@
       <c r="DA1" s="14"/>
     </row>
     <row r="2" spans="1:105">
-      <c r="A2" s="123"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
       <c r="L2" s="16">
         <v>43486</v>
       </c>
@@ -1880,17 +1877,17 @@
       <c r="DA2" s="19"/>
     </row>
     <row r="3" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="103">
-        <v>1</v>
+      <c r="D3" s="118">
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -2003,10 +2000,10 @@
       <c r="DA3" s="24"/>
     </row>
     <row r="4" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A4" s="124"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="99"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2114,10 +2111,10 @@
       <c r="DA4" s="24"/>
     </row>
     <row r="5" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="124"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="99"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2225,10 +2222,10 @@
       <c r="DA5" s="24"/>
     </row>
     <row r="6" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="100"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
@@ -2336,13 +2333,13 @@
       <c r="DA6" s="24"/>
     </row>
     <row r="7" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A7" s="124"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="117" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="103">
-        <v>2</v>
+      <c r="D7" s="118">
+        <v>4</v>
       </c>
       <c r="E7" s="77" t="s">
         <v>26</v>
@@ -2451,10 +2448,10 @@
       <c r="DA7" s="24"/>
     </row>
     <row r="8" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A8" s="124"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="99"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="72" t="s">
         <v>27</v>
       </c>
@@ -2562,10 +2559,10 @@
       <c r="DA8" s="24"/>
     </row>
     <row r="9" spans="1:105" ht="18.5" customHeight="1">
-      <c r="A9" s="124"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="100"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="76" t="s">
         <v>28</v>
       </c>
@@ -2620,13 +2617,13 @@
       <c r="BA9" s="22"/>
     </row>
     <row r="10" spans="1:105">
-      <c r="A10" s="124"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>29</v>
@@ -2682,13 +2679,13 @@
       <c r="BA10" s="22"/>
     </row>
     <row r="11" spans="1:105">
-      <c r="A11" s="124"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="117" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="103">
-        <v>4</v>
+      <c r="D11" s="118">
+        <v>8</v>
       </c>
       <c r="E11" s="77" t="s">
         <v>31</v>
@@ -2745,10 +2742,10 @@
       <c r="BA11" s="22"/>
     </row>
     <row r="12" spans="1:105">
-      <c r="A12" s="124"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="100"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="65" t="s">
         <v>32</v>
       </c>
@@ -2803,13 +2800,13 @@
       <c r="BA12" s="22"/>
     </row>
     <row r="13" spans="1:105">
-      <c r="A13" s="124"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="117" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="103">
-        <v>5</v>
+      <c r="D13" s="118">
+        <v>9</v>
       </c>
       <c r="E13" s="77" t="s">
         <v>34</v>
@@ -2865,10 +2862,10 @@
       <c r="BA13" s="27"/>
     </row>
     <row r="14" spans="1:105">
-      <c r="A14" s="124"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="100"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="77" t="s">
         <v>35</v>
       </c>
@@ -2923,13 +2920,13 @@
       <c r="BA14" s="34"/>
     </row>
     <row r="15" spans="1:105" ht="15.5" customHeight="1">
-      <c r="A15" s="124"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="117" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="103">
-        <v>6</v>
+      <c r="D15" s="118">
+        <v>10</v>
       </c>
       <c r="E15" s="75" t="s">
         <v>37</v>
@@ -2986,10 +2983,10 @@
       <c r="BA15" s="22"/>
     </row>
     <row r="16" spans="1:105">
-      <c r="A16" s="124"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="100"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="76" t="s">
         <v>38</v>
       </c>
@@ -3045,15 +3042,15 @@
       <c r="BA16" s="22"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="124"/>
-      <c r="B17" s="113" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="103">
-        <v>7</v>
+      <c r="D17" s="118">
+        <v>11</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>41</v>
@@ -3112,10 +3109,10 @@
       <c r="BA17" s="22"/>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="124"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="99"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="77" t="s">
         <v>42</v>
       </c>
@@ -3170,10 +3167,10 @@
       <c r="BA18" s="22"/>
     </row>
     <row r="19" spans="1:53">
-      <c r="A19" s="124"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="100"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="66" t="s">
         <v>43</v>
       </c>
@@ -3228,13 +3225,13 @@
       <c r="BA19" s="22"/>
     </row>
     <row r="20" spans="1:53">
-      <c r="A20" s="124"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="113" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="96">
-        <v>8</v>
+      <c r="D20" s="121">
+        <v>12</v>
       </c>
       <c r="E20" s="77" t="s">
         <v>41</v>
@@ -3283,10 +3280,10 @@
       <c r="BA20" s="7"/>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" s="124"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="97"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="77" t="s">
         <v>42</v>
       </c>
@@ -3334,10 +3331,10 @@
       <c r="BA21" s="7"/>
     </row>
     <row r="22" spans="1:53">
-      <c r="A22" s="124"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="98"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="76" t="s">
         <v>43</v>
       </c>
@@ -3385,15 +3382,15 @@
       <c r="BA22" s="7"/>
     </row>
     <row r="23" spans="1:53">
-      <c r="A23" s="124"/>
-      <c r="B23" s="113" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="103">
-        <v>9</v>
+      <c r="D23" s="118">
+        <v>13</v>
       </c>
       <c r="E23" s="77" t="s">
         <v>46</v>
@@ -3444,10 +3441,10 @@
       <c r="BA23" s="7"/>
     </row>
     <row r="24" spans="1:53">
-      <c r="A24" s="124"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="99"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="61" t="s">
         <v>47</v>
       </c>
@@ -3495,10 +3492,10 @@
       <c r="BA24" s="7"/>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="124"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="100"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="120"/>
       <c r="E25" s="78" t="s">
         <v>48</v>
       </c>
@@ -3546,13 +3543,13 @@
       <c r="BA25" s="7"/>
     </row>
     <row r="26" spans="1:53">
-      <c r="A26" s="124"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="117" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="103">
-        <v>10</v>
+      <c r="D26" s="118">
+        <v>14</v>
       </c>
       <c r="E26" s="73" t="s">
         <v>50</v>
@@ -3601,10 +3598,10 @@
       <c r="BA26" s="7"/>
     </row>
     <row r="27" spans="1:53">
-      <c r="A27" s="124"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="100"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="76" t="s">
         <v>51</v>
       </c>
@@ -3652,15 +3649,15 @@
       <c r="BA27" s="7"/>
     </row>
     <row r="28" spans="1:53">
-      <c r="A28" s="124"/>
-      <c r="B28" s="113" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="107" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="92">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28" s="67" t="s">
         <v>52</v>
@@ -3711,13 +3708,13 @@
       <c r="BA28" s="7"/>
     </row>
     <row r="29" spans="1:53">
-      <c r="A29" s="124"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="117" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="103">
-        <v>12</v>
+      <c r="D29" s="118">
+        <v>16</v>
       </c>
       <c r="E29" s="75" t="s">
         <v>54</v>
@@ -3766,10 +3763,10 @@
       <c r="BA29" s="7"/>
     </row>
     <row r="30" spans="1:53">
-      <c r="A30" s="124"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="99"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="77" t="s">
         <v>41</v>
       </c>
@@ -3817,10 +3814,10 @@
       <c r="BA30" s="7"/>
     </row>
     <row r="31" spans="1:53">
-      <c r="A31" s="124"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="100"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="120"/>
       <c r="E31" s="76" t="s">
         <v>55</v>
       </c>
@@ -3868,17 +3865,17 @@
       <c r="BA31" s="7"/>
     </row>
     <row r="32" spans="1:53">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="103">
-        <v>13</v>
+      <c r="D32" s="118">
+        <v>17</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>60</v>
@@ -3929,10 +3926,10 @@
       <c r="BA32" s="7"/>
     </row>
     <row r="33" spans="1:53">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="100"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="120"/>
       <c r="E33" s="76" t="s">
         <v>23</v>
       </c>
@@ -3980,13 +3977,13 @@
       <c r="BA33" s="7"/>
     </row>
     <row r="34" spans="1:53" ht="30">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="60" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="92">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E34" s="71" t="s">
         <v>62</v>
@@ -4035,13 +4032,13 @@
       <c r="BA34" s="7"/>
     </row>
     <row r="35" spans="1:53">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="117" t="s">
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="103">
-        <v>15</v>
+      <c r="D35" s="118">
+        <v>19</v>
       </c>
       <c r="E35" s="68" t="s">
         <v>97</v>
@@ -4090,10 +4087,10 @@
       <c r="BA35" s="7"/>
     </row>
     <row r="36" spans="1:53">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="100"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="120"/>
       <c r="E36" s="62" t="s">
         <v>64</v>
       </c>
@@ -4141,13 +4138,13 @@
       <c r="BA36" s="7"/>
     </row>
     <row r="37" spans="1:53">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="60" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="93">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>66</v>
@@ -4196,15 +4193,15 @@
       <c r="BA37" s="7"/>
     </row>
     <row r="38" spans="1:53">
-      <c r="A38" s="114"/>
-      <c r="B38" s="113" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="94">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E38" s="69" t="s">
         <v>23</v>
@@ -4253,13 +4250,13 @@
       <c r="BA38" s="7"/>
     </row>
     <row r="39" spans="1:53">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="120" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="104">
-        <v>18</v>
+      <c r="D39" s="124">
+        <v>22</v>
       </c>
       <c r="E39" s="57" t="s">
         <v>69</v>
@@ -4308,10 +4305,10 @@
       <c r="BA39" s="7"/>
     </row>
     <row r="40" spans="1:53">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="105"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="77" t="s">
         <v>70</v>
       </c>
@@ -4366,10 +4363,10 @@
       <c r="BA40" s="41"/>
     </row>
     <row r="41" spans="1:53">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="106"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="126"/>
       <c r="E41" s="76" t="s">
         <v>71</v>
       </c>
@@ -4380,19 +4377,61 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="52"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="39"/>
+      <c r="AX41" s="40"/>
+      <c r="AY41" s="40"/>
+      <c r="AZ41" s="40"/>
+      <c r="BA41" s="41"/>
     </row>
     <row r="42" spans="1:53">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="108" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="92">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E42" s="74" t="s">
         <v>75</v>
@@ -4406,15 +4445,57 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
+      <c r="AQ42" s="39"/>
+      <c r="AR42" s="39"/>
+      <c r="AS42" s="51"/>
+      <c r="AT42" s="52"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="28"/>
+      <c r="AW42" s="39"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="40"/>
+      <c r="AZ42" s="40"/>
+      <c r="BA42" s="41"/>
     </row>
     <row r="43" spans="1:53">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114" t="s">
+      <c r="A43" s="108"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="96">
-        <v>20</v>
+      <c r="D43" s="121">
+        <v>24</v>
       </c>
       <c r="E43" s="75" t="s">
         <v>76</v>
@@ -4426,12 +4507,54 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
+      <c r="AS43" s="51"/>
+      <c r="AT43" s="52"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="39"/>
+      <c r="AX43" s="40"/>
+      <c r="AY43" s="40"/>
+      <c r="AZ43" s="40"/>
+      <c r="BA43" s="41"/>
     </row>
     <row r="44" spans="1:53">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="98"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="123"/>
       <c r="E44" s="76" t="s">
         <v>77</v>
       </c>
@@ -4442,19 +4565,61 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="39"/>
+      <c r="AP44" s="39"/>
+      <c r="AQ44" s="39"/>
+      <c r="AR44" s="39"/>
+      <c r="AS44" s="51"/>
+      <c r="AT44" s="52"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="39"/>
+      <c r="AX44" s="40"/>
+      <c r="AY44" s="40"/>
+      <c r="AZ44" s="40"/>
+      <c r="BA44" s="41"/>
     </row>
     <row r="45" spans="1:53">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="96">
-        <v>21</v>
+      <c r="D45" s="121">
+        <v>25</v>
       </c>
       <c r="E45" s="75" t="s">
         <v>19</v>
@@ -4466,12 +4631,54 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="39"/>
+      <c r="AS45" s="51"/>
+      <c r="AT45" s="52"/>
+      <c r="AU45" s="38"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="39"/>
+      <c r="AX45" s="40"/>
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="41"/>
     </row>
     <row r="46" spans="1:53">
-      <c r="A46" s="111"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="97"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="77" t="s">
         <v>81</v>
       </c>
@@ -4482,12 +4689,54 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="39"/>
+      <c r="AS46" s="51"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="38"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="39"/>
+      <c r="AX46" s="40"/>
+      <c r="AY46" s="40"/>
+      <c r="AZ46" s="40"/>
+      <c r="BA46" s="41"/>
     </row>
     <row r="47" spans="1:53">
-      <c r="A47" s="111"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="98"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="123"/>
       <c r="E47" s="76" t="s">
         <v>82</v>
       </c>
@@ -4498,15 +4747,57 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="52"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="28"/>
+      <c r="AW47" s="39"/>
+      <c r="AX47" s="40"/>
+      <c r="AY47" s="40"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="41"/>
     </row>
     <row r="48" spans="1:53">
-      <c r="A48" s="111"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="113" t="s">
+      <c r="A48" s="116"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="96">
-        <v>22</v>
+      <c r="D48" s="121">
+        <v>26</v>
       </c>
       <c r="E48" s="75" t="s">
         <v>85</v>
@@ -4518,12 +4809,54 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:49">
-      <c r="A49" s="111"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="98"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
+      <c r="AQ48" s="39"/>
+      <c r="AR48" s="39"/>
+      <c r="AS48" s="51"/>
+      <c r="AT48" s="52"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="28"/>
+      <c r="AW48" s="39"/>
+      <c r="AX48" s="40"/>
+      <c r="AY48" s="40"/>
+      <c r="AZ48" s="40"/>
+      <c r="BA48" s="41"/>
+    </row>
+    <row r="49" spans="1:53">
+      <c r="A49" s="116"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="123"/>
       <c r="E49" s="76" t="s">
         <v>84</v>
       </c>
@@ -4534,17 +4867,59 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:49">
-      <c r="A50" s="111"/>
-      <c r="B50" s="113" t="s">
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="51"/>
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="38"/>
+      <c r="AV49" s="28"/>
+      <c r="AW49" s="39"/>
+      <c r="AX49" s="40"/>
+      <c r="AY49" s="40"/>
+      <c r="AZ49" s="40"/>
+      <c r="BA49" s="41"/>
+    </row>
+    <row r="50" spans="1:53">
+      <c r="A50" s="116"/>
+      <c r="B50" s="107" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="92">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E50" s="74" t="s">
         <v>88</v>
@@ -4556,15 +4931,57 @@
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:49">
-      <c r="A51" s="111"/>
-      <c r="B51" s="114"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="51"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="39"/>
+      <c r="AQ50" s="39"/>
+      <c r="AR50" s="39"/>
+      <c r="AS50" s="51"/>
+      <c r="AT50" s="52"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="28"/>
+      <c r="AW50" s="39"/>
+      <c r="AX50" s="40"/>
+      <c r="AY50" s="40"/>
+      <c r="AZ50" s="40"/>
+      <c r="BA50" s="41"/>
+    </row>
+    <row r="51" spans="1:53">
+      <c r="A51" s="116"/>
+      <c r="B51" s="108"/>
       <c r="C51" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D51" s="95">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E51" s="76" t="s">
         <v>19</v>
@@ -4576,17 +4993,59 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:49">
-      <c r="A52" s="111"/>
-      <c r="B52" s="116" t="s">
+      <c r="L51" s="38"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="51"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="38"/>
+      <c r="AO51" s="39"/>
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
+      <c r="AR51" s="39"/>
+      <c r="AS51" s="51"/>
+      <c r="AT51" s="52"/>
+      <c r="AU51" s="38"/>
+      <c r="AV51" s="28"/>
+      <c r="AW51" s="39"/>
+      <c r="AX51" s="40"/>
+      <c r="AY51" s="40"/>
+      <c r="AZ51" s="40"/>
+      <c r="BA51" s="41"/>
+    </row>
+    <row r="52" spans="1:53">
+      <c r="A52" s="116"/>
+      <c r="B52" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="99">
-        <v>25</v>
+      <c r="D52" s="119">
+        <v>29</v>
       </c>
       <c r="E52" s="74" t="s">
         <v>92</v>
@@ -4598,12 +5057,54 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:49">
-      <c r="A53" s="111"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="100"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="38"/>
+      <c r="AO52" s="39"/>
+      <c r="AP52" s="39"/>
+      <c r="AQ52" s="39"/>
+      <c r="AR52" s="39"/>
+      <c r="AS52" s="51"/>
+      <c r="AT52" s="52"/>
+      <c r="AU52" s="38"/>
+      <c r="AV52" s="28"/>
+      <c r="AW52" s="39"/>
+      <c r="AX52" s="40"/>
+      <c r="AY52" s="40"/>
+      <c r="AZ52" s="40"/>
+      <c r="BA52" s="41"/>
+    </row>
+    <row r="53" spans="1:53">
+      <c r="A53" s="116"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="120"/>
       <c r="E53" s="31" t="s">
         <v>64</v>
       </c>
@@ -4614,17 +5115,59 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="70"/>
-    </row>
-    <row r="54" spans="1:49">
-      <c r="A54" s="111"/>
-      <c r="B54" s="109" t="s">
+      <c r="L53" s="38"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="38"/>
+      <c r="AO53" s="39"/>
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="39"/>
+      <c r="AS53" s="51"/>
+      <c r="AT53" s="52"/>
+      <c r="AU53" s="38"/>
+      <c r="AV53" s="28"/>
+      <c r="AW53" s="39"/>
+      <c r="AX53" s="40"/>
+      <c r="AY53" s="40"/>
+      <c r="AZ53" s="40"/>
+      <c r="BA53" s="41"/>
+    </row>
+    <row r="54" spans="1:53">
+      <c r="A54" s="116"/>
+      <c r="B54" s="114" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="101">
-        <v>26</v>
+      <c r="D54" s="96">
+        <v>30</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>95</v>
@@ -4637,16 +5180,58 @@
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="29"/>
-      <c r="AV54" s="12"/>
-      <c r="AW54" s="12"/>
-    </row>
-    <row r="55" spans="1:49">
-      <c r="A55" s="112"/>
-      <c r="B55" s="109"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="39"/>
+      <c r="AP54" s="39"/>
+      <c r="AQ54" s="39"/>
+      <c r="AR54" s="39"/>
+      <c r="AS54" s="51"/>
+      <c r="AT54" s="52"/>
+      <c r="AU54" s="38"/>
+      <c r="AV54" s="28"/>
+      <c r="AW54" s="39"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="41"/>
+    </row>
+    <row r="55" spans="1:53">
+      <c r="A55" s="117"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="102"/>
+      <c r="D55" s="96">
+        <v>31</v>
+      </c>
       <c r="E55" s="9" t="s">
         <v>98</v>
       </c>
@@ -4657,13 +5242,98 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:49">
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="38"/>
+      <c r="AO55" s="39"/>
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="51"/>
+      <c r="AT55" s="52"/>
+      <c r="AU55" s="38"/>
+      <c r="AV55" s="28"/>
+      <c r="AW55" s="39"/>
+      <c r="AX55" s="40"/>
+      <c r="AY55" s="40"/>
+      <c r="AZ55" s="40"/>
+      <c r="BA55" s="41"/>
+    </row>
+    <row r="56" spans="1:53">
       <c r="K56" s="29"/>
       <c r="AW56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="59">
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B23:B27"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C11:C12"/>
@@ -4680,50 +5350,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과물/WBS.xlsx
+++ b/결과물/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Desktop/boostcamp_git_exmaple/gitflowex/결과물/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Desktop/Boostcamp_3th/gitflowex/결과물/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09095C4-8A2D-FB43-91E1-5072D722FD73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D913D-EFFB-8940-AF3E-9D755079AF63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>작업기간</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>issue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 1 개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 2/3 개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 3 개발</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,35 +1106,50 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1133,55 +1160,76 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,10 +1570,10 @@
   <dimension ref="A1:DA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1547,34 +1595,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="106" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1687,16 +1735,16 @@
       <c r="DA1" s="14"/>
     </row>
     <row r="2" spans="1:105">
-      <c r="A2" s="102"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
       <c r="L2" s="16">
         <v>43486</v>
       </c>
@@ -1877,16 +1925,16 @@
       <c r="DA2" s="19"/>
     </row>
     <row r="3" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="102">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2000,10 +2048,10 @@
       <c r="DA3" s="24"/>
     </row>
     <row r="4" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="119"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2111,10 +2159,10 @@
       <c r="DA4" s="24"/>
     </row>
     <row r="5" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="119"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2222,10 +2270,10 @@
       <c r="DA5" s="24"/>
     </row>
     <row r="6" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
@@ -2333,12 +2381,12 @@
       <c r="DA6" s="24"/>
     </row>
     <row r="7" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="99" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7" s="102">
         <v>4</v>
       </c>
       <c r="E7" s="77" t="s">
@@ -2448,10 +2496,10 @@
       <c r="DA7" s="24"/>
     </row>
     <row r="8" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="119"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="72" t="s">
         <v>27</v>
       </c>
@@ -2559,10 +2607,10 @@
       <c r="DA8" s="24"/>
     </row>
     <row r="9" spans="1:105" ht="18.5" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="120"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="76" t="s">
         <v>28</v>
       </c>
@@ -2617,8 +2665,8 @@
       <c r="BA9" s="22"/>
     </row>
     <row r="10" spans="1:105">
-      <c r="A10" s="103"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="60" t="s">
         <v>18</v>
       </c>
@@ -2679,12 +2727,12 @@
       <c r="BA10" s="22"/>
     </row>
     <row r="11" spans="1:105">
-      <c r="A11" s="103"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="99" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="102">
         <v>8</v>
       </c>
       <c r="E11" s="77" t="s">
@@ -2742,10 +2790,10 @@
       <c r="BA11" s="22"/>
     </row>
     <row r="12" spans="1:105">
-      <c r="A12" s="103"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="65" t="s">
         <v>32</v>
       </c>
@@ -2800,12 +2848,12 @@
       <c r="BA12" s="22"/>
     </row>
     <row r="13" spans="1:105">
-      <c r="A13" s="103"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="99" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="102">
         <v>9</v>
       </c>
       <c r="E13" s="77" t="s">
@@ -2862,10 +2910,10 @@
       <c r="BA13" s="27"/>
     </row>
     <row r="14" spans="1:105">
-      <c r="A14" s="103"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="77" t="s">
         <v>35</v>
       </c>
@@ -2920,12 +2968,12 @@
       <c r="BA14" s="34"/>
     </row>
     <row r="15" spans="1:105" ht="15.5" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="99" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D15" s="102">
         <v>10</v>
       </c>
       <c r="E15" s="75" t="s">
@@ -2983,10 +3031,10 @@
       <c r="BA15" s="22"/>
     </row>
     <row r="16" spans="1:105">
-      <c r="A16" s="103"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="120"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="76" t="s">
         <v>38</v>
       </c>
@@ -3042,14 +3090,14 @@
       <c r="BA16" s="22"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="103"/>
-      <c r="B17" s="107" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="102">
         <v>11</v>
       </c>
       <c r="E17" s="77" t="s">
@@ -3109,10 +3157,10 @@
       <c r="BA17" s="22"/>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="103"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="119"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="77" t="s">
         <v>42</v>
       </c>
@@ -3167,10 +3215,10 @@
       <c r="BA18" s="22"/>
     </row>
     <row r="19" spans="1:53">
-      <c r="A19" s="103"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="120"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="66" t="s">
         <v>43</v>
       </c>
@@ -3225,12 +3273,12 @@
       <c r="BA19" s="22"/>
     </row>
     <row r="20" spans="1:53">
-      <c r="A20" s="103"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="107" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="121">
+      <c r="D20" s="97">
         <v>12</v>
       </c>
       <c r="E20" s="77" t="s">
@@ -3280,10 +3328,10 @@
       <c r="BA20" s="7"/>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" s="103"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="77" t="s">
         <v>42</v>
       </c>
@@ -3331,10 +3379,10 @@
       <c r="BA21" s="7"/>
     </row>
     <row r="22" spans="1:53">
-      <c r="A22" s="103"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="123"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="76" t="s">
         <v>43</v>
       </c>
@@ -3382,14 +3430,14 @@
       <c r="BA22" s="7"/>
     </row>
     <row r="23" spans="1:53">
-      <c r="A23" s="103"/>
-      <c r="B23" s="107" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="118">
+      <c r="D23" s="102">
         <v>13</v>
       </c>
       <c r="E23" s="77" t="s">
@@ -3441,10 +3489,10 @@
       <c r="BA23" s="7"/>
     </row>
     <row r="24" spans="1:53">
-      <c r="A24" s="103"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="119"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="61" t="s">
         <v>47</v>
       </c>
@@ -3492,10 +3540,10 @@
       <c r="BA24" s="7"/>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="120"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="78" t="s">
         <v>48</v>
       </c>
@@ -3543,12 +3591,12 @@
       <c r="BA25" s="7"/>
     </row>
     <row r="26" spans="1:53">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="99" t="s">
+      <c r="A26" s="123"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="118">
+      <c r="D26" s="102">
         <v>14</v>
       </c>
       <c r="E26" s="73" t="s">
@@ -3598,10 +3646,10 @@
       <c r="BA26" s="7"/>
     </row>
     <row r="27" spans="1:53">
-      <c r="A27" s="103"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="120"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="76" t="s">
         <v>51</v>
       </c>
@@ -3649,8 +3697,8 @@
       <c r="BA27" s="7"/>
     </row>
     <row r="28" spans="1:53">
-      <c r="A28" s="103"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="123"/>
+      <c r="B28" s="112" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="60" t="s">
@@ -3680,13 +3728,15 @@
       <c r="R28" s="44"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="50"/>
+      <c r="Z28" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="138"/>
       <c r="AG28" s="55"/>
       <c r="AH28" s="55"/>
       <c r="AI28" s="55"/>
@@ -3708,12 +3758,12 @@
       <c r="BA28" s="7"/>
     </row>
     <row r="29" spans="1:53">
-      <c r="A29" s="103"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="99" t="s">
+      <c r="A29" s="123"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="118">
+      <c r="D29" s="102">
         <v>16</v>
       </c>
       <c r="E29" s="75" t="s">
@@ -3735,13 +3785,13 @@
       <c r="R29" s="44"/>
       <c r="X29" s="55"/>
       <c r="Y29" s="55"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="50"/>
+      <c r="Z29" s="133"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="135"/>
       <c r="AG29" s="55"/>
       <c r="AH29" s="55"/>
       <c r="AI29" s="55"/>
@@ -3763,10 +3813,10 @@
       <c r="BA29" s="7"/>
     </row>
     <row r="30" spans="1:53">
-      <c r="A30" s="103"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="119"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="77" t="s">
         <v>41</v>
       </c>
@@ -3786,13 +3836,13 @@
       <c r="R30" s="44"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="50"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="135"/>
       <c r="AG30" s="55"/>
       <c r="AH30" s="55"/>
       <c r="AI30" s="55"/>
@@ -3814,10 +3864,10 @@
       <c r="BA30" s="7"/>
     </row>
     <row r="31" spans="1:53">
-      <c r="A31" s="103"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="120"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="76" t="s">
         <v>55</v>
       </c>
@@ -3837,13 +3887,13 @@
       <c r="R31" s="44"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="50"/>
+      <c r="Z31" s="133"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="135"/>
       <c r="AG31" s="55"/>
       <c r="AH31" s="55"/>
       <c r="AI31" s="55"/>
@@ -3865,16 +3915,16 @@
       <c r="BA31" s="7"/>
     </row>
     <row r="32" spans="1:53">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="118">
+      <c r="D32" s="102">
         <v>17</v>
       </c>
       <c r="E32" s="58" t="s">
@@ -3926,10 +3976,10 @@
       <c r="BA32" s="7"/>
     </row>
     <row r="33" spans="1:53">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="120"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="76" t="s">
         <v>23</v>
       </c>
@@ -3977,8 +4027,8 @@
       <c r="BA33" s="7"/>
     </row>
     <row r="34" spans="1:53" ht="30">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="60" t="s">
         <v>61</v>
       </c>
@@ -4032,12 +4082,12 @@
       <c r="BA34" s="7"/>
     </row>
     <row r="35" spans="1:53">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="99" t="s">
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="118">
+      <c r="D35" s="102">
         <v>19</v>
       </c>
       <c r="E35" s="68" t="s">
@@ -4087,10 +4137,10 @@
       <c r="BA35" s="7"/>
     </row>
     <row r="36" spans="1:53">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="120"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="62" t="s">
         <v>64</v>
       </c>
@@ -4138,8 +4188,8 @@
       <c r="BA36" s="7"/>
     </row>
     <row r="37" spans="1:53">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="60" t="s">
         <v>65</v>
       </c>
@@ -4193,8 +4243,8 @@
       <c r="BA37" s="7"/>
     </row>
     <row r="38" spans="1:53">
-      <c r="A38" s="108"/>
-      <c r="B38" s="107" t="s">
+      <c r="A38" s="113"/>
+      <c r="B38" s="112" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="60" t="s">
@@ -4250,12 +4300,12 @@
       <c r="BA38" s="7"/>
     </row>
     <row r="39" spans="1:53">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="110" t="s">
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="124">
+      <c r="D39" s="103">
         <v>22</v>
       </c>
       <c r="E39" s="57" t="s">
@@ -4305,10 +4355,10 @@
       <c r="BA39" s="7"/>
     </row>
     <row r="40" spans="1:53">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="125"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="77" t="s">
         <v>70</v>
       </c>
@@ -4363,10 +4413,10 @@
       <c r="BA40" s="41"/>
     </row>
     <row r="41" spans="1:53">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="126"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="76" t="s">
         <v>71</v>
       </c>
@@ -4421,10 +4471,10 @@
       <c r="BA41" s="41"/>
     </row>
     <row r="42" spans="1:53">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="113" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="60" t="s">
@@ -4452,13 +4502,15 @@
       <c r="P42" s="39"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="46"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
+      <c r="S42" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="T42" s="129"/>
+      <c r="U42" s="129"/>
+      <c r="V42" s="129"/>
+      <c r="W42" s="129"/>
+      <c r="X42" s="129"/>
+      <c r="Y42" s="130"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="39"/>
       <c r="AB42" s="39"/>
@@ -4489,12 +4541,12 @@
       <c r="BA42" s="41"/>
     </row>
     <row r="43" spans="1:53">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="121">
+      <c r="D43" s="97">
         <v>24</v>
       </c>
       <c r="E43" s="75" t="s">
@@ -4514,13 +4566,13 @@
       <c r="P43" s="39"/>
       <c r="Q43" s="45"/>
       <c r="R43" s="46"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="127"/>
+      <c r="V43" s="127"/>
+      <c r="W43" s="127"/>
+      <c r="X43" s="127"/>
+      <c r="Y43" s="127"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
@@ -4551,10 +4603,10 @@
       <c r="BA43" s="41"/>
     </row>
     <row r="44" spans="1:53">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="123"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="99"/>
       <c r="E44" s="76" t="s">
         <v>77</v>
       </c>
@@ -4572,13 +4624,13 @@
       <c r="P44" s="39"/>
       <c r="Q44" s="45"/>
       <c r="R44" s="46"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
+      <c r="S44" s="127"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="127"/>
+      <c r="V44" s="127"/>
+      <c r="W44" s="127"/>
+      <c r="X44" s="127"/>
+      <c r="Y44" s="127"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
@@ -4609,16 +4661,16 @@
       <c r="BA44" s="41"/>
     </row>
     <row r="45" spans="1:53">
-      <c r="A45" s="115" t="s">
+      <c r="A45" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="121">
+      <c r="D45" s="97">
         <v>25</v>
       </c>
       <c r="E45" s="75" t="s">
@@ -4638,13 +4690,13 @@
       <c r="P45" s="39"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="46"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="127"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
@@ -4675,10 +4727,10 @@
       <c r="BA45" s="41"/>
     </row>
     <row r="46" spans="1:53">
-      <c r="A46" s="116"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="122"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="77" t="s">
         <v>81</v>
       </c>
@@ -4696,13 +4748,13 @@
       <c r="P46" s="39"/>
       <c r="Q46" s="45"/>
       <c r="R46" s="46"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="127"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="127"/>
+      <c r="Y46" s="127"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="39"/>
       <c r="AB46" s="39"/>
@@ -4733,10 +4785,10 @@
       <c r="BA46" s="41"/>
     </row>
     <row r="47" spans="1:53">
-      <c r="A47" s="116"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="123"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="76" t="s">
         <v>82</v>
       </c>
@@ -4754,13 +4806,13 @@
       <c r="P47" s="39"/>
       <c r="Q47" s="45"/>
       <c r="R47" s="46"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="127"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="127"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="39"/>
       <c r="AB47" s="39"/>
@@ -4791,12 +4843,12 @@
       <c r="BA47" s="41"/>
     </row>
     <row r="48" spans="1:53">
-      <c r="A48" s="116"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="107" t="s">
+      <c r="A48" s="110"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="121">
+      <c r="D48" s="97">
         <v>26</v>
       </c>
       <c r="E48" s="75" t="s">
@@ -4816,13 +4868,13 @@
       <c r="P48" s="39"/>
       <c r="Q48" s="45"/>
       <c r="R48" s="46"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
+      <c r="S48" s="127"/>
+      <c r="T48" s="127"/>
+      <c r="U48" s="127"/>
+      <c r="V48" s="127"/>
+      <c r="W48" s="127"/>
+      <c r="X48" s="127"/>
+      <c r="Y48" s="127"/>
       <c r="Z48" s="38"/>
       <c r="AA48" s="39"/>
       <c r="AB48" s="39"/>
@@ -4853,10 +4905,10 @@
       <c r="BA48" s="41"/>
     </row>
     <row r="49" spans="1:53">
-      <c r="A49" s="116"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="123"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="99"/>
       <c r="E49" s="76" t="s">
         <v>84</v>
       </c>
@@ -4874,13 +4926,13 @@
       <c r="P49" s="39"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="46"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="51"/>
+      <c r="S49" s="127"/>
+      <c r="T49" s="127"/>
+      <c r="U49" s="127"/>
+      <c r="V49" s="127"/>
+      <c r="W49" s="127"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="39"/>
       <c r="AB49" s="39"/>
@@ -4911,8 +4963,8 @@
       <c r="BA49" s="41"/>
     </row>
     <row r="50" spans="1:53">
-      <c r="A50" s="116"/>
-      <c r="B50" s="107" t="s">
+      <c r="A50" s="110"/>
+      <c r="B50" s="112" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="60" t="s">
@@ -4945,13 +4997,15 @@
       <c r="W50" s="39"/>
       <c r="X50" s="51"/>
       <c r="Y50" s="51"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="51"/>
-      <c r="AF50" s="52"/>
+      <c r="Z50" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA50" s="129"/>
+      <c r="AB50" s="129"/>
+      <c r="AC50" s="129"/>
+      <c r="AD50" s="129"/>
+      <c r="AE50" s="129"/>
+      <c r="AF50" s="130"/>
       <c r="AG50" s="51"/>
       <c r="AH50" s="51"/>
       <c r="AI50" s="51"/>
@@ -4975,8 +5029,8 @@
       <c r="BA50" s="41"/>
     </row>
     <row r="51" spans="1:53">
-      <c r="A51" s="116"/>
-      <c r="B51" s="108"/>
+      <c r="A51" s="110"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="59" t="s">
         <v>89</v>
       </c>
@@ -5007,13 +5061,13 @@
       <c r="W51" s="39"/>
       <c r="X51" s="51"/>
       <c r="Y51" s="51"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="51"/>
-      <c r="AF51" s="52"/>
+      <c r="Z51" s="131"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
+      <c r="AC51" s="127"/>
+      <c r="AD51" s="127"/>
+      <c r="AE51" s="127"/>
+      <c r="AF51" s="132"/>
       <c r="AG51" s="51"/>
       <c r="AH51" s="51"/>
       <c r="AI51" s="51"/>
@@ -5037,14 +5091,14 @@
       <c r="BA51" s="41"/>
     </row>
     <row r="52" spans="1:53">
-      <c r="A52" s="116"/>
-      <c r="B52" s="113" t="s">
+      <c r="A52" s="110"/>
+      <c r="B52" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="119">
+      <c r="D52" s="100">
         <v>29</v>
       </c>
       <c r="E52" s="74" t="s">
@@ -5071,13 +5125,13 @@
       <c r="W52" s="39"/>
       <c r="X52" s="51"/>
       <c r="Y52" s="51"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="51"/>
-      <c r="AF52" s="52"/>
+      <c r="Z52" s="131"/>
+      <c r="AA52" s="127"/>
+      <c r="AB52" s="127"/>
+      <c r="AC52" s="127"/>
+      <c r="AD52" s="127"/>
+      <c r="AE52" s="127"/>
+      <c r="AF52" s="132"/>
       <c r="AG52" s="51"/>
       <c r="AH52" s="51"/>
       <c r="AI52" s="51"/>
@@ -5101,10 +5155,10 @@
       <c r="BA52" s="41"/>
     </row>
     <row r="53" spans="1:53">
-      <c r="A53" s="116"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="120"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="31" t="s">
         <v>64</v>
       </c>
@@ -5129,13 +5183,13 @@
       <c r="W53" s="39"/>
       <c r="X53" s="51"/>
       <c r="Y53" s="51"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="51"/>
-      <c r="AF53" s="52"/>
+      <c r="Z53" s="131"/>
+      <c r="AA53" s="127"/>
+      <c r="AB53" s="127"/>
+      <c r="AC53" s="127"/>
+      <c r="AD53" s="127"/>
+      <c r="AE53" s="127"/>
+      <c r="AF53" s="132"/>
       <c r="AG53" s="51"/>
       <c r="AH53" s="51"/>
       <c r="AI53" s="51"/>
@@ -5159,8 +5213,8 @@
       <c r="BA53" s="41"/>
     </row>
     <row r="54" spans="1:53">
-      <c r="A54" s="116"/>
-      <c r="B54" s="114" t="s">
+      <c r="A54" s="110"/>
+      <c r="B54" s="108" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="31" t="s">
@@ -5194,13 +5248,13 @@
       <c r="W54" s="39"/>
       <c r="X54" s="51"/>
       <c r="Y54" s="51"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="52"/>
+      <c r="Z54" s="131"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
+      <c r="AC54" s="127"/>
+      <c r="AD54" s="127"/>
+      <c r="AE54" s="127"/>
+      <c r="AF54" s="132"/>
       <c r="AG54" s="51"/>
       <c r="AH54" s="51"/>
       <c r="AI54" s="51"/>
@@ -5224,8 +5278,8 @@
       <c r="BA54" s="41"/>
     </row>
     <row r="55" spans="1:53">
-      <c r="A55" s="117"/>
-      <c r="B55" s="114"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="108"/>
       <c r="C55" s="31" t="s">
         <v>96</v>
       </c>
@@ -5256,13 +5310,13 @@
       <c r="W55" s="39"/>
       <c r="X55" s="51"/>
       <c r="Y55" s="51"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="52"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="127"/>
+      <c r="AB55" s="127"/>
+      <c r="AC55" s="127"/>
+      <c r="AD55" s="127"/>
+      <c r="AE55" s="127"/>
+      <c r="AF55" s="132"/>
       <c r="AG55" s="51"/>
       <c r="AH55" s="51"/>
       <c r="AI55" s="51"/>
@@ -5290,50 +5344,10 @@
       <c r="AW56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B23:B27"/>
+  <mergeCells count="62">
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="Z50:AF50"/>
+    <mergeCell ref="Z28:AF28"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C11:C12"/>
@@ -5350,6 +5364,49 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과물/WBS.xlsx
+++ b/결과물/WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Desktop/Boostcamp_3th/gitflowex/결과물/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\카퀴카퀴\Desktop\수업\부스트캠프\TeamH 아카이브\boostcamp3_archive\결과물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D913D-EFFB-8940-AF3E-9D755079AF63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5432D1-1B32-411D-A0EB-68651F892EC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1106,114 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,15 +1223,6 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,103 +1232,28 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,7 +1582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,59 +1594,59 @@
   <dimension ref="A1:DA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22:R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="3" width="16" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="91" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" style="12" customWidth="1"/>
     <col min="7" max="7" width="8" style="12" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0" style="12" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="12"/>
-    <col min="11" max="11" width="3.6640625" style="12" customWidth="1"/>
-    <col min="12" max="49" width="2.33203125" style="29" customWidth="1"/>
-    <col min="50" max="53" width="2.33203125" style="12" customWidth="1"/>
-    <col min="54" max="115" width="3.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" style="12" customWidth="1"/>
+    <col min="12" max="49" width="2.296875" style="29" customWidth="1"/>
+    <col min="50" max="53" width="2.296875" style="12" customWidth="1"/>
+    <col min="54" max="115" width="3.19921875" style="12" customWidth="1"/>
     <col min="116" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="109" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1735,16 +1759,16 @@
       <c r="DA1" s="14"/>
     </row>
     <row r="2" spans="1:105">
-      <c r="A2" s="122"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
       <c r="L2" s="16">
         <v>43486</v>
       </c>
@@ -1925,16 +1949,16 @@
       <c r="DA2" s="19"/>
     </row>
     <row r="3" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="130">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1961,8 +1985,8 @@
       <c r="R3" s="44"/>
       <c r="S3" s="20"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
       <c r="W3" s="21"/>
       <c r="X3" s="49"/>
       <c r="Y3" s="50"/>
@@ -2048,10 +2072,10 @@
       <c r="DA3" s="24"/>
     </row>
     <row r="4" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A4" s="123"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="100"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2072,8 +2096,8 @@
       <c r="R4" s="44"/>
       <c r="S4" s="20"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
       <c r="W4" s="21"/>
       <c r="X4" s="49"/>
       <c r="Y4" s="50"/>
@@ -2159,10 +2183,10 @@
       <c r="DA4" s="24"/>
     </row>
     <row r="5" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="123"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="100"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2207,8 @@
       <c r="R5" s="44"/>
       <c r="S5" s="20"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
       <c r="W5" s="21"/>
       <c r="X5" s="49"/>
       <c r="Y5" s="50"/>
@@ -2270,10 +2294,10 @@
       <c r="DA5" s="24"/>
     </row>
     <row r="6" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="101"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
@@ -2297,8 +2321,8 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="50"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="140"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
@@ -2381,12 +2405,12 @@
       <c r="DA6" s="24"/>
     </row>
     <row r="7" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A7" s="123"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="116" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="130">
         <v>4</v>
       </c>
       <c r="E7" s="77" t="s">
@@ -2411,7 +2435,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="W7" s="139"/>
       <c r="X7" s="49"/>
       <c r="Y7" s="50"/>
       <c r="Z7" s="20"/>
@@ -2496,10 +2520,10 @@
       <c r="DA7" s="24"/>
     </row>
     <row r="8" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A8" s="123"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="100"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="72" t="s">
         <v>27</v>
       </c>
@@ -2522,7 +2546,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="W8" s="139"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="50"/>
       <c r="Z8" s="20"/>
@@ -2606,11 +2630,11 @@
       <c r="CZ8" s="24"/>
       <c r="DA8" s="24"/>
     </row>
-    <row r="9" spans="1:105" ht="18.5" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="101"/>
+    <row r="9" spans="1:105" ht="18.45" customHeight="1">
+      <c r="A9" s="115"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="76" t="s">
         <v>28</v>
       </c>
@@ -2626,20 +2650,20 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
       <c r="AE9" s="49"/>
       <c r="AF9" s="50"/>
       <c r="AG9" s="56"/>
@@ -2665,8 +2689,8 @@
       <c r="BA9" s="22"/>
     </row>
     <row r="10" spans="1:105">
-      <c r="A10" s="123"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="60" t="s">
         <v>18</v>
       </c>
@@ -2688,20 +2712,20 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="33"/>
       <c r="AE10" s="49"/>
       <c r="AF10" s="50"/>
       <c r="AG10" s="56"/>
@@ -2727,12 +2751,12 @@
       <c r="BA10" s="22"/>
     </row>
     <row r="11" spans="1:105">
-      <c r="A11" s="123"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="116" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="130">
         <v>8</v>
       </c>
       <c r="E11" s="77" t="s">
@@ -2760,8 +2784,8 @@
       <c r="W11" s="21"/>
       <c r="X11" s="49"/>
       <c r="Y11" s="50"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="21"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="139"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="21"/>
@@ -2790,10 +2814,10 @@
       <c r="BA11" s="22"/>
     </row>
     <row r="12" spans="1:105">
-      <c r="A12" s="123"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="101"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="65" t="s">
         <v>32</v>
       </c>
@@ -2818,8 +2842,8 @@
       <c r="W12" s="21"/>
       <c r="X12" s="49"/>
       <c r="Y12" s="50"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="21"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="139"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
@@ -2848,12 +2872,12 @@
       <c r="BA12" s="22"/>
     </row>
     <row r="13" spans="1:105">
-      <c r="A13" s="123"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="116" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="130">
         <v>9</v>
       </c>
       <c r="E13" s="77" t="s">
@@ -2910,10 +2934,10 @@
       <c r="BA13" s="27"/>
     </row>
     <row r="14" spans="1:105">
-      <c r="A14" s="123"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="101"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="77" t="s">
         <v>35</v>
       </c>
@@ -2967,13 +2991,13 @@
       <c r="AZ14" s="33"/>
       <c r="BA14" s="34"/>
     </row>
-    <row r="15" spans="1:105" ht="15.5" customHeight="1">
-      <c r="A15" s="123"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="116" t="s">
+    <row r="15" spans="1:105" ht="15.45" customHeight="1">
+      <c r="A15" s="115"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="130">
         <v>10</v>
       </c>
       <c r="E15" s="75" t="s">
@@ -3031,10 +3055,10 @@
       <c r="BA15" s="22"/>
     </row>
     <row r="16" spans="1:105">
-      <c r="A16" s="123"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="101"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="76" t="s">
         <v>38</v>
       </c>
@@ -3090,14 +3114,14 @@
       <c r="BA16" s="22"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="123"/>
-      <c r="B17" s="112" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="130">
         <v>11</v>
       </c>
       <c r="E17" s="77" t="s">
@@ -3157,10 +3181,10 @@
       <c r="BA17" s="22"/>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="123"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="100"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="131"/>
       <c r="E18" s="77" t="s">
         <v>42</v>
       </c>
@@ -3215,10 +3239,10 @@
       <c r="BA18" s="22"/>
     </row>
     <row r="19" spans="1:53">
-      <c r="A19" s="123"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="101"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="66" t="s">
         <v>43</v>
       </c>
@@ -3273,12 +3297,12 @@
       <c r="BA19" s="22"/>
     </row>
     <row r="20" spans="1:53">
-      <c r="A20" s="123"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="112" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="133">
         <v>12</v>
       </c>
       <c r="E20" s="77" t="s">
@@ -3328,10 +3352,10 @@
       <c r="BA20" s="7"/>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" s="123"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="98"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="77" t="s">
         <v>42</v>
       </c>
@@ -3379,10 +3403,10 @@
       <c r="BA21" s="7"/>
     </row>
     <row r="22" spans="1:53">
-      <c r="A22" s="123"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="99"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="76" t="s">
         <v>43</v>
       </c>
@@ -3398,8 +3422,8 @@
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="146"/>
       <c r="X22" s="55"/>
       <c r="Y22" s="55"/>
       <c r="Z22" s="36"/>
@@ -3430,14 +3454,14 @@
       <c r="BA22" s="7"/>
     </row>
     <row r="23" spans="1:53">
-      <c r="A23" s="123"/>
-      <c r="B23" s="112" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="130">
         <v>13</v>
       </c>
       <c r="E23" s="77" t="s">
@@ -3457,8 +3481,8 @@
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="146"/>
       <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="36"/>
@@ -3489,10 +3513,10 @@
       <c r="BA23" s="7"/>
     </row>
     <row r="24" spans="1:53">
-      <c r="A24" s="123"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="100"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="131"/>
       <c r="E24" s="61" t="s">
         <v>47</v>
       </c>
@@ -3508,8 +3532,8 @@
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="146"/>
       <c r="X24" s="55"/>
       <c r="Y24" s="55"/>
       <c r="Z24" s="36"/>
@@ -3540,10 +3564,10 @@
       <c r="BA24" s="7"/>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="123"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="78" t="s">
         <v>48</v>
       </c>
@@ -3559,8 +3583,8 @@
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="146"/>
       <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="36"/>
@@ -3591,12 +3615,12 @@
       <c r="BA25" s="7"/>
     </row>
     <row r="26" spans="1:53">
-      <c r="A26" s="123"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="116" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="102">
+      <c r="D26" s="130">
         <v>14</v>
       </c>
       <c r="E26" s="73" t="s">
@@ -3614,8 +3638,8 @@
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="146"/>
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="36"/>
@@ -3646,10 +3670,10 @@
       <c r="BA26" s="7"/>
     </row>
     <row r="27" spans="1:53">
-      <c r="A27" s="123"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="101"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="76" t="s">
         <v>51</v>
       </c>
@@ -3697,8 +3721,8 @@
       <c r="BA27" s="7"/>
     </row>
     <row r="28" spans="1:53">
-      <c r="A28" s="123"/>
-      <c r="B28" s="112" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="119" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="60" t="s">
@@ -3728,15 +3752,15 @@
       <c r="R28" s="44"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
-      <c r="Z28" s="136" t="s">
+      <c r="Z28" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="138"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="108"/>
       <c r="AG28" s="55"/>
       <c r="AH28" s="55"/>
       <c r="AI28" s="55"/>
@@ -3758,12 +3782,12 @@
       <c r="BA28" s="7"/>
     </row>
     <row r="29" spans="1:53">
-      <c r="A29" s="123"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="116" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="102">
+      <c r="D29" s="130">
         <v>16</v>
       </c>
       <c r="E29" s="75" t="s">
@@ -3785,13 +3809,13 @@
       <c r="R29" s="44"/>
       <c r="X29" s="55"/>
       <c r="Y29" s="55"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="134"/>
-      <c r="AF29" s="135"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="102"/>
       <c r="AG29" s="55"/>
       <c r="AH29" s="55"/>
       <c r="AI29" s="55"/>
@@ -3813,10 +3837,10 @@
       <c r="BA29" s="7"/>
     </row>
     <row r="30" spans="1:53">
-      <c r="A30" s="123"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="100"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="131"/>
       <c r="E30" s="77" t="s">
         <v>41</v>
       </c>
@@ -3836,13 +3860,13 @@
       <c r="R30" s="44"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
-      <c r="Z30" s="133"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="135"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="102"/>
       <c r="AG30" s="55"/>
       <c r="AH30" s="55"/>
       <c r="AI30" s="55"/>
@@ -3864,10 +3888,10 @@
       <c r="BA30" s="7"/>
     </row>
     <row r="31" spans="1:53">
-      <c r="A31" s="123"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="101"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="76" t="s">
         <v>55</v>
       </c>
@@ -3887,13 +3911,13 @@
       <c r="R31" s="44"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
-      <c r="Z31" s="133"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="134"/>
-      <c r="AF31" s="135"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="102"/>
       <c r="AG31" s="55"/>
       <c r="AH31" s="55"/>
       <c r="AI31" s="55"/>
@@ -3915,16 +3939,16 @@
       <c r="BA31" s="7"/>
     </row>
     <row r="32" spans="1:53">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="102">
+      <c r="D32" s="130">
         <v>17</v>
       </c>
       <c r="E32" s="58" t="s">
@@ -3976,10 +4000,10 @@
       <c r="BA32" s="7"/>
     </row>
     <row r="33" spans="1:53">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="101"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="76" t="s">
         <v>23</v>
       </c>
@@ -4026,9 +4050,9 @@
       <c r="AZ33" s="6"/>
       <c r="BA33" s="7"/>
     </row>
-    <row r="34" spans="1:53" ht="30">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
+    <row r="34" spans="1:53" ht="26.4">
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="60" t="s">
         <v>61</v>
       </c>
@@ -4082,12 +4106,12 @@
       <c r="BA34" s="7"/>
     </row>
     <row r="35" spans="1:53">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="116" t="s">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="102">
+      <c r="D35" s="130">
         <v>19</v>
       </c>
       <c r="E35" s="68" t="s">
@@ -4137,10 +4161,10 @@
       <c r="BA35" s="7"/>
     </row>
     <row r="36" spans="1:53">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="101"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="132"/>
       <c r="E36" s="62" t="s">
         <v>64</v>
       </c>
@@ -4188,8 +4212,8 @@
       <c r="BA36" s="7"/>
     </row>
     <row r="37" spans="1:53">
-      <c r="A37" s="113"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="60" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4267,8 @@
       <c r="BA37" s="7"/>
     </row>
     <row r="38" spans="1:53">
-      <c r="A38" s="113"/>
-      <c r="B38" s="112" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="119" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="60" t="s">
@@ -4300,12 +4324,12 @@
       <c r="BA38" s="7"/>
     </row>
     <row r="39" spans="1:53">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="119" t="s">
+      <c r="A39" s="120"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="103">
+      <c r="D39" s="136">
         <v>22</v>
       </c>
       <c r="E39" s="57" t="s">
@@ -4355,10 +4379,10 @@
       <c r="BA39" s="7"/>
     </row>
     <row r="40" spans="1:53">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="104"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="77" t="s">
         <v>70</v>
       </c>
@@ -4413,10 +4437,10 @@
       <c r="BA40" s="41"/>
     </row>
     <row r="41" spans="1:53">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="105"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="76" t="s">
         <v>71</v>
       </c>
@@ -4471,10 +4495,10 @@
       <c r="BA41" s="41"/>
     </row>
     <row r="42" spans="1:53">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="120" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="60" t="s">
@@ -4502,15 +4526,15 @@
       <c r="P42" s="39"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="46"/>
-      <c r="S42" s="128" t="s">
+      <c r="S42" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="T42" s="129"/>
-      <c r="U42" s="129"/>
-      <c r="V42" s="129"/>
-      <c r="W42" s="129"/>
-      <c r="X42" s="129"/>
-      <c r="Y42" s="130"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="105"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="39"/>
       <c r="AB42" s="39"/>
@@ -4541,12 +4565,12 @@
       <c r="BA42" s="41"/>
     </row>
     <row r="43" spans="1:53">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="133">
         <v>24</v>
       </c>
       <c r="E43" s="75" t="s">
@@ -4566,13 +4590,13 @@
       <c r="P43" s="39"/>
       <c r="Q43" s="45"/>
       <c r="R43" s="46"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="127"/>
-      <c r="U43" s="127"/>
-      <c r="V43" s="127"/>
-      <c r="W43" s="127"/>
-      <c r="X43" s="127"/>
-      <c r="Y43" s="127"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="97"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
@@ -4603,10 +4627,10 @@
       <c r="BA43" s="41"/>
     </row>
     <row r="44" spans="1:53">
-      <c r="A44" s="114"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="99"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="76" t="s">
         <v>77</v>
       </c>
@@ -4624,13 +4648,13 @@
       <c r="P44" s="39"/>
       <c r="Q44" s="45"/>
       <c r="R44" s="46"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="127"/>
-      <c r="U44" s="127"/>
-      <c r="V44" s="127"/>
-      <c r="W44" s="127"/>
-      <c r="X44" s="127"/>
-      <c r="Y44" s="127"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
@@ -4661,16 +4685,16 @@
       <c r="BA44" s="41"/>
     </row>
     <row r="45" spans="1:53">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="133">
         <v>25</v>
       </c>
       <c r="E45" s="75" t="s">
@@ -4690,13 +4714,13 @@
       <c r="P45" s="39"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="46"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="127"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="127"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
@@ -4727,10 +4751,10 @@
       <c r="BA45" s="41"/>
     </row>
     <row r="46" spans="1:53">
-      <c r="A46" s="110"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="98"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="77" t="s">
         <v>81</v>
       </c>
@@ -4748,13 +4772,13 @@
       <c r="P46" s="39"/>
       <c r="Q46" s="45"/>
       <c r="R46" s="46"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="127"/>
-      <c r="U46" s="127"/>
-      <c r="V46" s="127"/>
-      <c r="W46" s="127"/>
-      <c r="X46" s="127"/>
-      <c r="Y46" s="127"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="39"/>
       <c r="AB46" s="39"/>
@@ -4785,10 +4809,10 @@
       <c r="BA46" s="41"/>
     </row>
     <row r="47" spans="1:53">
-      <c r="A47" s="110"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="99"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="135"/>
       <c r="E47" s="76" t="s">
         <v>82</v>
       </c>
@@ -4806,13 +4830,13 @@
       <c r="P47" s="39"/>
       <c r="Q47" s="45"/>
       <c r="R47" s="46"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="127"/>
-      <c r="U47" s="127"/>
-      <c r="V47" s="127"/>
-      <c r="W47" s="127"/>
-      <c r="X47" s="127"/>
-      <c r="Y47" s="127"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
+      <c r="V47" s="97"/>
+      <c r="W47" s="97"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="97"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="39"/>
       <c r="AB47" s="39"/>
@@ -4843,12 +4867,12 @@
       <c r="BA47" s="41"/>
     </row>
     <row r="48" spans="1:53">
-      <c r="A48" s="110"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="112" t="s">
+      <c r="A48" s="128"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="133">
         <v>26</v>
       </c>
       <c r="E48" s="75" t="s">
@@ -4868,13 +4892,13 @@
       <c r="P48" s="39"/>
       <c r="Q48" s="45"/>
       <c r="R48" s="46"/>
-      <c r="S48" s="127"/>
-      <c r="T48" s="127"/>
-      <c r="U48" s="127"/>
-      <c r="V48" s="127"/>
-      <c r="W48" s="127"/>
-      <c r="X48" s="127"/>
-      <c r="Y48" s="127"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="97"/>
+      <c r="U48" s="97"/>
+      <c r="V48" s="97"/>
+      <c r="W48" s="97"/>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="97"/>
       <c r="Z48" s="38"/>
       <c r="AA48" s="39"/>
       <c r="AB48" s="39"/>
@@ -4905,10 +4929,10 @@
       <c r="BA48" s="41"/>
     </row>
     <row r="49" spans="1:53">
-      <c r="A49" s="110"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="99"/>
+      <c r="A49" s="128"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="135"/>
       <c r="E49" s="76" t="s">
         <v>84</v>
       </c>
@@ -4926,13 +4950,13 @@
       <c r="P49" s="39"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="46"/>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
-      <c r="U49" s="127"/>
-      <c r="V49" s="127"/>
-      <c r="W49" s="127"/>
-      <c r="X49" s="127"/>
-      <c r="Y49" s="127"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="97"/>
+      <c r="U49" s="97"/>
+      <c r="V49" s="97"/>
+      <c r="W49" s="97"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="97"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="39"/>
       <c r="AB49" s="39"/>
@@ -4963,8 +4987,8 @@
       <c r="BA49" s="41"/>
     </row>
     <row r="50" spans="1:53">
-      <c r="A50" s="110"/>
-      <c r="B50" s="112" t="s">
+      <c r="A50" s="128"/>
+      <c r="B50" s="119" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="60" t="s">
@@ -4997,15 +5021,15 @@
       <c r="W50" s="39"/>
       <c r="X50" s="51"/>
       <c r="Y50" s="51"/>
-      <c r="Z50" s="128" t="s">
+      <c r="Z50" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="AA50" s="129"/>
-      <c r="AB50" s="129"/>
-      <c r="AC50" s="129"/>
-      <c r="AD50" s="129"/>
-      <c r="AE50" s="129"/>
-      <c r="AF50" s="130"/>
+      <c r="AA50" s="104"/>
+      <c r="AB50" s="104"/>
+      <c r="AC50" s="104"/>
+      <c r="AD50" s="104"/>
+      <c r="AE50" s="104"/>
+      <c r="AF50" s="105"/>
       <c r="AG50" s="51"/>
       <c r="AH50" s="51"/>
       <c r="AI50" s="51"/>
@@ -5029,8 +5053,8 @@
       <c r="BA50" s="41"/>
     </row>
     <row r="51" spans="1:53">
-      <c r="A51" s="110"/>
-      <c r="B51" s="113"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="59" t="s">
         <v>89</v>
       </c>
@@ -5061,13 +5085,13 @@
       <c r="W51" s="39"/>
       <c r="X51" s="51"/>
       <c r="Y51" s="51"/>
-      <c r="Z51" s="131"/>
-      <c r="AA51" s="127"/>
-      <c r="AB51" s="127"/>
-      <c r="AC51" s="127"/>
-      <c r="AD51" s="127"/>
-      <c r="AE51" s="127"/>
-      <c r="AF51" s="132"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="97"/>
+      <c r="AF51" s="99"/>
       <c r="AG51" s="51"/>
       <c r="AH51" s="51"/>
       <c r="AI51" s="51"/>
@@ -5091,14 +5115,14 @@
       <c r="BA51" s="41"/>
     </row>
     <row r="52" spans="1:53">
-      <c r="A52" s="110"/>
-      <c r="B52" s="115" t="s">
+      <c r="A52" s="128"/>
+      <c r="B52" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="115" t="s">
+      <c r="C52" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="100">
+      <c r="D52" s="131">
         <v>29</v>
       </c>
       <c r="E52" s="74" t="s">
@@ -5125,13 +5149,13 @@
       <c r="W52" s="39"/>
       <c r="X52" s="51"/>
       <c r="Y52" s="51"/>
-      <c r="Z52" s="131"/>
-      <c r="AA52" s="127"/>
-      <c r="AB52" s="127"/>
-      <c r="AC52" s="127"/>
-      <c r="AD52" s="127"/>
-      <c r="AE52" s="127"/>
-      <c r="AF52" s="132"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="97"/>
+      <c r="AB52" s="97"/>
+      <c r="AC52" s="97"/>
+      <c r="AD52" s="97"/>
+      <c r="AE52" s="97"/>
+      <c r="AF52" s="99"/>
       <c r="AG52" s="51"/>
       <c r="AH52" s="51"/>
       <c r="AI52" s="51"/>
@@ -5155,10 +5179,10 @@
       <c r="BA52" s="41"/>
     </row>
     <row r="53" spans="1:53">
-      <c r="A53" s="110"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="101"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="132"/>
       <c r="E53" s="31" t="s">
         <v>64</v>
       </c>
@@ -5183,13 +5207,13 @@
       <c r="W53" s="39"/>
       <c r="X53" s="51"/>
       <c r="Y53" s="51"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="127"/>
-      <c r="AB53" s="127"/>
-      <c r="AC53" s="127"/>
-      <c r="AD53" s="127"/>
-      <c r="AE53" s="127"/>
-      <c r="AF53" s="132"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="97"/>
+      <c r="AB53" s="97"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="99"/>
       <c r="AG53" s="51"/>
       <c r="AH53" s="51"/>
       <c r="AI53" s="51"/>
@@ -5213,8 +5237,8 @@
       <c r="BA53" s="41"/>
     </row>
     <row r="54" spans="1:53">
-      <c r="A54" s="110"/>
-      <c r="B54" s="108" t="s">
+      <c r="A54" s="128"/>
+      <c r="B54" s="126" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="31" t="s">
@@ -5248,13 +5272,13 @@
       <c r="W54" s="39"/>
       <c r="X54" s="51"/>
       <c r="Y54" s="51"/>
-      <c r="Z54" s="131"/>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="127"/>
-      <c r="AC54" s="127"/>
-      <c r="AD54" s="127"/>
-      <c r="AE54" s="127"/>
-      <c r="AF54" s="132"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="97"/>
+      <c r="AB54" s="97"/>
+      <c r="AC54" s="97"/>
+      <c r="AD54" s="97"/>
+      <c r="AE54" s="97"/>
+      <c r="AF54" s="99"/>
       <c r="AG54" s="51"/>
       <c r="AH54" s="51"/>
       <c r="AI54" s="51"/>
@@ -5278,8 +5302,8 @@
       <c r="BA54" s="41"/>
     </row>
     <row r="55" spans="1:53">
-      <c r="A55" s="111"/>
-      <c r="B55" s="108"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="31" t="s">
         <v>96</v>
       </c>
@@ -5310,13 +5334,13 @@
       <c r="W55" s="39"/>
       <c r="X55" s="51"/>
       <c r="Y55" s="51"/>
-      <c r="Z55" s="131"/>
-      <c r="AA55" s="127"/>
-      <c r="AB55" s="127"/>
-      <c r="AC55" s="127"/>
-      <c r="AD55" s="127"/>
-      <c r="AE55" s="127"/>
-      <c r="AF55" s="132"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="97"/>
+      <c r="AD55" s="97"/>
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="99"/>
       <c r="AG55" s="51"/>
       <c r="AH55" s="51"/>
       <c r="AI55" s="51"/>
@@ -5345,29 +5369,26 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="Z50:AF50"/>
-    <mergeCell ref="Z28:AF28"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C35:C36"/>
@@ -5377,19 +5398,30 @@
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="Z50:AF50"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D11:D12"/>
@@ -5399,14 +5431,6 @@
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과물/WBS.xlsx
+++ b/결과물/WBS.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\카퀴카퀴\Desktop\수업\부스트캠프\TeamH 아카이브\boostcamp3_archive\결과물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bethe\Desktop\부스트캠프\archive\결과물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5432D1-1B32-411D-A0EB-68651F892EC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7A342-44E1-4898-8F86-6707C8C8E52B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -443,15 +442,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="dd"/>
-    <numFmt numFmtId="177" formatCode="###\ "/>
-    <numFmt numFmtId="178" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
+    <numFmt numFmtId="165" formatCode="###\ "/>
+    <numFmt numFmtId="166" formatCode="000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -460,7 +459,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -469,14 +468,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -546,7 +545,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,16 +868,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,7 +946,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,274 +991,382 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,76 +1690,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD9CFF-9BB9-D64A-98A7-D85AD8B9E400}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22:R26"/>
+      <selection pane="bottomRight" activeCell="BP34" sqref="BP34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" outlineLevelRow="1" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="3" width="16" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8" style="12" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1875" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
+    <col min="6" max="7" width="4.1875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0" style="12" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="12"/>
-    <col min="11" max="11" width="3.69921875" style="12" customWidth="1"/>
-    <col min="12" max="49" width="2.296875" style="29" customWidth="1"/>
-    <col min="50" max="53" width="2.296875" style="12" customWidth="1"/>
-    <col min="54" max="115" width="3.19921875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="3.6875" style="12" customWidth="1"/>
+    <col min="12" max="49" width="2.3125" style="29" customWidth="1"/>
+    <col min="50" max="53" width="2.3125" style="12" customWidth="1"/>
+    <col min="54" max="115" width="3.1875" style="12" customWidth="1"/>
     <col min="116" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="118" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1758,17 +1857,17 @@
       <c r="CZ1" s="14"/>
       <c r="DA1" s="14"/>
     </row>
-    <row r="2" spans="1:105">
-      <c r="A2" s="114"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
+    <row r="2" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
       <c r="L2" s="16">
         <v>43486</v>
       </c>
@@ -1948,27 +2047,27 @@
       <c r="CZ2" s="19"/>
       <c r="DA2" s="19"/>
     </row>
-    <row r="3" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A3" s="115" t="s">
+    <row r="3" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="130">
+      <c r="D3" s="98">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="4">
         <v>1</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>99</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -1985,8 +2084,8 @@
       <c r="R3" s="44"/>
       <c r="S3" s="20"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
       <c r="W3" s="21"/>
       <c r="X3" s="49"/>
       <c r="Y3" s="50"/>
@@ -2071,18 +2170,18 @@
       <c r="CZ3" s="24"/>
       <c r="DA3" s="24"/>
     </row>
-    <row r="4" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="117"/>
+    <row r="4" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="112"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="96"/>
+      <c r="E4" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="64"/>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="80"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2096,8 +2195,8 @@
       <c r="R4" s="44"/>
       <c r="S4" s="20"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
       <c r="W4" s="21"/>
       <c r="X4" s="49"/>
       <c r="Y4" s="50"/>
@@ -2182,18 +2281,18 @@
       <c r="CZ4" s="24"/>
       <c r="DA4" s="24"/>
     </row>
-    <row r="5" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="117"/>
+    <row r="5" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="113"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="112"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="64"/>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="80"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2207,8 +2306,8 @@
       <c r="R5" s="44"/>
       <c r="S5" s="20"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="21"/>
       <c r="X5" s="49"/>
       <c r="Y5" s="50"/>
@@ -2293,64 +2392,64 @@
       <c r="CZ5" s="24"/>
       <c r="DA5" s="24"/>
     </row>
-    <row r="6" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="9" t="s">
+    <row r="6" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="113"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="64"/>
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="80"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="22"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="27"/>
       <c r="BB6" s="24"/>
       <c r="BC6" s="24"/>
       <c r="BD6" s="24"/>
@@ -2404,22 +2503,22 @@
       <c r="CZ6" s="24"/>
       <c r="DA6" s="24"/>
     </row>
-    <row r="7" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="111" t="s">
+    <row r="7" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="113"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="98">
         <v>4</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="64"/>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="80"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2435,7 +2534,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="139"/>
+      <c r="W7" s="87"/>
       <c r="X7" s="49"/>
       <c r="Y7" s="50"/>
       <c r="Z7" s="20"/>
@@ -2519,18 +2618,18 @@
       <c r="CZ7" s="24"/>
       <c r="DA7" s="24"/>
     </row>
-    <row r="8" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="117"/>
+    <row r="8" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="113"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="112"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="64"/>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="80"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2546,7 +2645,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="139"/>
+      <c r="W8" s="87"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="50"/>
       <c r="Z8" s="20"/>
@@ -2630,30 +2729,30 @@
       <c r="CZ8" s="24"/>
       <c r="DA8" s="24"/>
     </row>
-    <row r="9" spans="1:105" ht="18.45" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="76" t="s">
+    <row r="9" spans="1:105" ht="18.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="113"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="64"/>
+      <c r="G9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="80"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="46"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="142"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -2664,534 +2763,534 @@
       <c r="AB9" s="26"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="22"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="27"/>
     </row>
-    <row r="10" spans="1:105">
-      <c r="A10" s="115"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="60" t="s">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A10" s="113"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="76">
         <v>7</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="64"/>
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="G10" s="80"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="22"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="156"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="153"/>
+      <c r="AK10" s="153"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
+      <c r="AQ10" s="153"/>
+      <c r="AR10" s="153"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="157"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="153"/>
+      <c r="AX10" s="153"/>
+      <c r="AY10" s="153"/>
+      <c r="AZ10" s="153"/>
+      <c r="BA10" s="161"/>
     </row>
-    <row r="11" spans="1:105">
-      <c r="A11" s="115"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="111" t="s">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A11" s="113"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="98">
         <v>8</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="64"/>
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="80"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="22"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="34"/>
     </row>
-    <row r="12" spans="1:105">
-      <c r="A12" s="115"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="65" t="s">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A12" s="113"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="64"/>
+      <c r="G12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="80"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="27"/>
     </row>
-    <row r="13" spans="1:105">
-      <c r="A13" s="115"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="111" t="s">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A13" s="113"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="130">
+      <c r="D13" s="98">
         <v>9</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="64"/>
+      <c r="G13" s="59">
         <v>3</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="27"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="34"/>
     </row>
-    <row r="14" spans="1:105">
-      <c r="A14" s="115"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="77" t="s">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A14" s="113"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="64"/>
+      <c r="G14" s="9">
         <v>3</v>
       </c>
-      <c r="G14" s="80"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="34"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="27"/>
     </row>
-    <row r="15" spans="1:105" ht="15.45" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="111" t="s">
+    <row r="15" spans="1:105" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="113"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="130">
+      <c r="D15" s="98">
         <v>10</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="64"/>
+      <c r="G15" s="10">
         <v>2</v>
       </c>
-      <c r="G15" s="80"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="22"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="34"/>
     </row>
-    <row r="16" spans="1:105">
-      <c r="A16" s="115"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="76" t="s">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.75">
+      <c r="A16" s="113"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="65"/>
+      <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="81"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="22"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="27"/>
     </row>
-    <row r="17" spans="1:53">
-      <c r="A17" s="115"/>
-      <c r="B17" s="119" t="s">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A17" s="113"/>
+      <c r="B17" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="98">
         <v>11</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="60">
         <v>3</v>
       </c>
-      <c r="G17" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="23"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="22"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="163"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="180"/>
+      <c r="AL17" s="180"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="34"/>
     </row>
-    <row r="18" spans="1:53">
-      <c r="A18" s="115"/>
-      <c r="B18" s="120"/>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A18" s="113"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="112"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="77" t="s">
+      <c r="D18" s="96"/>
+      <c r="E18" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="70"/>
+      <c r="G18" s="5">
         <v>3</v>
       </c>
-      <c r="G18" s="86"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3220,8 +3319,8 @@
       <c r="AH18" s="49"/>
       <c r="AI18" s="49"/>
       <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="49"/>
+      <c r="AK18" s="148"/>
+      <c r="AL18" s="148"/>
       <c r="AM18" s="50"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="21"/>
@@ -3238,131 +3337,138 @@
       <c r="AZ18" s="21"/>
       <c r="BA18" s="22"/>
     </row>
-    <row r="19" spans="1:53">
-      <c r="A19" s="115"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="66" t="s">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A19" s="113"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="70"/>
+      <c r="G19" s="9">
         <v>3</v>
       </c>
-      <c r="G19" s="86"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="22"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="27"/>
     </row>
-    <row r="20" spans="1:53">
-      <c r="A20" s="115"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="119" t="s">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A20" s="113"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="93">
         <v>12</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="70"/>
+      <c r="G20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="86"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="23"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="7"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="165"/>
+      <c r="AK20" s="165"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="164"/>
+      <c r="AO20" s="165"/>
+      <c r="AP20" s="165"/>
+      <c r="AQ20" s="165"/>
+      <c r="AR20" s="165"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="164"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="165"/>
+      <c r="AX20" s="166"/>
+      <c r="AY20" s="166"/>
+      <c r="AZ20" s="166"/>
+      <c r="BA20" s="167"/>
     </row>
-    <row r="21" spans="1:53">
-      <c r="A21" s="115"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="77" t="s">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A21" s="113"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="70"/>
+      <c r="G21" s="5">
         <v>3</v>
       </c>
-      <c r="G21" s="86"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -3373,8 +3479,13 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="43"/>
       <c r="R21" s="44"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
       <c r="Z21" s="36"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
@@ -3382,11 +3493,13 @@
       <c r="AD21" s="37"/>
       <c r="AE21" s="49"/>
       <c r="AF21" s="50"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
       <c r="AN21" s="36"/>
       <c r="AO21" s="37"/>
       <c r="AP21" s="37"/>
@@ -3402,128 +3515,142 @@
       <c r="AZ21" s="6"/>
       <c r="BA21" s="7"/>
     </row>
-    <row r="22" spans="1:53">
-      <c r="A22" s="115"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="76" t="s">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A22" s="113"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="71"/>
+      <c r="G22" s="30">
         <v>3</v>
       </c>
-      <c r="G22" s="87"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="23"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="7"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="41"/>
     </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="115"/>
-      <c r="B23" s="119" t="s">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A23" s="113"/>
+      <c r="B23" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="98">
         <v>13</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="5">
         <v>2</v>
-      </c>
-      <c r="G23" s="88" t="s">
-        <v>99</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="23"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="7"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="165"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="164"/>
+      <c r="AO23" s="165"/>
+      <c r="AP23" s="165"/>
+      <c r="AQ23" s="165"/>
+      <c r="AR23" s="165"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="164"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="165"/>
+      <c r="AX23" s="166"/>
+      <c r="AY23" s="166"/>
+      <c r="AZ23" s="166"/>
+      <c r="BA23" s="167"/>
     </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="115"/>
-      <c r="B24" s="120"/>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A24" s="113"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="112"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="61" t="s">
+      <c r="D24" s="96"/>
+      <c r="E24" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="73"/>
+      <c r="G24" s="8">
         <v>2</v>
       </c>
-      <c r="G24" s="89"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3532,10 +3659,15 @@
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="146"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
       <c r="Z24" s="36"/>
       <c r="AA24" s="37"/>
       <c r="AB24" s="37"/>
@@ -3543,11 +3675,13 @@
       <c r="AD24" s="37"/>
       <c r="AE24" s="49"/>
       <c r="AF24" s="50"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
       <c r="AN24" s="36"/>
       <c r="AO24" s="37"/>
       <c r="AP24" s="37"/>
@@ -3563,291 +3697,326 @@
       <c r="AZ24" s="6"/>
       <c r="BA24" s="7"/>
     </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="115"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="78" t="s">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A25" s="113"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="73"/>
+      <c r="G25" s="9">
         <v>2</v>
       </c>
-      <c r="G25" s="89"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="146"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="37"/>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="37"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="37"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="7"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="168"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="40"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="41"/>
     </row>
-    <row r="26" spans="1:53">
-      <c r="A26" s="115"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="111" t="s">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A26" s="113"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="130">
+      <c r="D26" s="98">
         <v>14</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="73"/>
+      <c r="G26" s="8">
         <v>2</v>
       </c>
-      <c r="G26" s="89"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="145"/>
-      <c r="R26" s="146"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="23"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="7"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="165"/>
+      <c r="AK26" s="165"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="164"/>
+      <c r="AO26" s="165"/>
+      <c r="AP26" s="165"/>
+      <c r="AQ26" s="165"/>
+      <c r="AR26" s="165"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="164"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="165"/>
+      <c r="AX26" s="166"/>
+      <c r="AY26" s="166"/>
+      <c r="AZ26" s="166"/>
+      <c r="BA26" s="167"/>
     </row>
-    <row r="27" spans="1:53">
-      <c r="A27" s="115"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="76" t="s">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A27" s="113"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="74"/>
+      <c r="G27" s="9">
         <v>2</v>
       </c>
-      <c r="G27" s="90"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="50"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="23"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
-      <c r="BA27" s="7"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="41"/>
     </row>
-    <row r="28" spans="1:53">
-      <c r="A28" s="115"/>
-      <c r="B28" s="119" t="s">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A28" s="113"/>
+      <c r="B28" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="76">
         <v>15</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="31">
         <v>3</v>
-      </c>
-      <c r="G28" s="82" t="s">
-        <v>101</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="106" t="s">
+      <c r="L28" s="174"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="7"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="121"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="175"/>
+      <c r="AK28" s="175"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="174"/>
+      <c r="AO28" s="175"/>
+      <c r="AP28" s="175"/>
+      <c r="AQ28" s="175"/>
+      <c r="AR28" s="175"/>
+      <c r="AS28" s="156"/>
+      <c r="AT28" s="157"/>
+      <c r="AU28" s="174"/>
+      <c r="AV28" s="160"/>
+      <c r="AW28" s="175"/>
+      <c r="AX28" s="176"/>
+      <c r="AY28" s="176"/>
+      <c r="AZ28" s="176"/>
+      <c r="BA28" s="61"/>
     </row>
-    <row r="29" spans="1:53">
-      <c r="A29" s="115"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="111" t="s">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A29" s="113"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="130">
+      <c r="D29" s="98">
         <v>16</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="67"/>
+      <c r="G29" s="4">
         <v>3</v>
       </c>
-      <c r="G29" s="83"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="102"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="7"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="178"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="178"/>
+      <c r="AF29" s="179"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="165"/>
+      <c r="AK29" s="165"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="164"/>
+      <c r="AO29" s="165"/>
+      <c r="AP29" s="165"/>
+      <c r="AQ29" s="165"/>
+      <c r="AR29" s="165"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="164"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="165"/>
+      <c r="AX29" s="166"/>
+      <c r="AY29" s="166"/>
+      <c r="AZ29" s="166"/>
+      <c r="BA29" s="167"/>
     </row>
-    <row r="30" spans="1:53">
-      <c r="A30" s="115"/>
-      <c r="B30" s="120"/>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A30" s="113"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="112"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="77" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="67"/>
+      <c r="G30" s="5">
         <v>3</v>
       </c>
-      <c r="G30" s="83"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -3858,20 +4027,27 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="43"/>
       <c r="R30" s="44"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="102"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
       <c r="AN30" s="36"/>
       <c r="AO30" s="37"/>
       <c r="AP30" s="37"/>
@@ -3887,458 +4063,514 @@
       <c r="AZ30" s="6"/>
       <c r="BA30" s="7"/>
     </row>
-    <row r="31" spans="1:53">
-      <c r="A31" s="115"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="76" t="s">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A31" s="113"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="68"/>
+      <c r="G31" s="9">
         <v>3</v>
       </c>
-      <c r="G31" s="84"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="44"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="101"/>
-      <c r="AF31" s="102"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="23"/>
-      <c r="AW31" s="37"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="7"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="83"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="41"/>
     </row>
-    <row r="32" spans="1:53">
-      <c r="A32" s="119" t="s">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A32" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="130">
+      <c r="D32" s="98">
         <v>17</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="4">
         <v>1</v>
-      </c>
-      <c r="G32" s="85" t="s">
-        <v>100</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="50"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="23"/>
-      <c r="AW32" s="37"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="7"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="180"/>
+      <c r="T32" s="180"/>
+      <c r="U32" s="165"/>
+      <c r="V32" s="165"/>
+      <c r="W32" s="165"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="165"/>
+      <c r="AB32" s="165"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="165"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="165"/>
+      <c r="AK32" s="165"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="164"/>
+      <c r="AO32" s="165"/>
+      <c r="AP32" s="165"/>
+      <c r="AQ32" s="165"/>
+      <c r="AR32" s="165"/>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="54"/>
+      <c r="AU32" s="164"/>
+      <c r="AV32" s="35"/>
+      <c r="AW32" s="165"/>
+      <c r="AX32" s="166"/>
+      <c r="AY32" s="166"/>
+      <c r="AZ32" s="166"/>
+      <c r="BA32" s="167"/>
     </row>
-    <row r="33" spans="1:53">
-      <c r="A33" s="120"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="76" t="s">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="70"/>
+      <c r="G33" s="9">
         <v>1</v>
       </c>
-      <c r="G33" s="86"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="37"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="50"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="23"/>
-      <c r="AW33" s="37"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="7"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="39"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="41"/>
     </row>
-    <row r="34" spans="1:53" ht="26.4">
-      <c r="A34" s="120"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="60" t="s">
+    <row r="34" spans="1:53" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="76">
         <v>18</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="70"/>
+      <c r="G34" s="31">
         <v>1</v>
       </c>
-      <c r="G34" s="86"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="50"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="6"/>
-      <c r="AY34" s="6"/>
-      <c r="AZ34" s="6"/>
-      <c r="BA34" s="7"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="181"/>
+      <c r="U34" s="181"/>
+      <c r="V34" s="181"/>
+      <c r="W34" s="175"/>
+      <c r="X34" s="156"/>
+      <c r="Y34" s="156"/>
+      <c r="Z34" s="174"/>
+      <c r="AA34" s="175"/>
+      <c r="AB34" s="175"/>
+      <c r="AC34" s="175"/>
+      <c r="AD34" s="175"/>
+      <c r="AE34" s="156"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="156"/>
+      <c r="AH34" s="156"/>
+      <c r="AI34" s="156"/>
+      <c r="AJ34" s="175"/>
+      <c r="AK34" s="175"/>
+      <c r="AL34" s="156"/>
+      <c r="AM34" s="156"/>
+      <c r="AN34" s="174"/>
+      <c r="AO34" s="175"/>
+      <c r="AP34" s="175"/>
+      <c r="AQ34" s="175"/>
+      <c r="AR34" s="175"/>
+      <c r="AS34" s="156"/>
+      <c r="AT34" s="157"/>
+      <c r="AU34" s="174"/>
+      <c r="AV34" s="160"/>
+      <c r="AW34" s="175"/>
+      <c r="AX34" s="176"/>
+      <c r="AY34" s="176"/>
+      <c r="AZ34" s="176"/>
+      <c r="BA34" s="61"/>
     </row>
-    <row r="35" spans="1:53">
-      <c r="A35" s="120"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="111" t="s">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="130">
+      <c r="D35" s="98">
         <v>19</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="70"/>
+      <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="86"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="44"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="50"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="23"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="7"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
+      <c r="P35" s="165"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="165"/>
+      <c r="V35" s="180"/>
+      <c r="W35" s="180"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="165"/>
+      <c r="AB35" s="165"/>
+      <c r="AC35" s="165"/>
+      <c r="AD35" s="165"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="165"/>
+      <c r="AK35" s="165"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="164"/>
+      <c r="AO35" s="165"/>
+      <c r="AP35" s="165"/>
+      <c r="AQ35" s="165"/>
+      <c r="AR35" s="165"/>
+      <c r="AS35" s="53"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="164"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="165"/>
+      <c r="AX35" s="166"/>
+      <c r="AY35" s="166"/>
+      <c r="AZ35" s="166"/>
+      <c r="BA35" s="167"/>
     </row>
-    <row r="36" spans="1:53">
-      <c r="A36" s="120"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="62" t="s">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="70"/>
+      <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="G36" s="86"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="50"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="23"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="7"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="51"/>
+      <c r="AT36" s="52"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="28"/>
+      <c r="AW36" s="39"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="40"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="41"/>
     </row>
-    <row r="37" spans="1:53">
-      <c r="A37" s="120"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="60" t="s">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="93">
+      <c r="D37" s="77">
         <v>20</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="86"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="9">
+        <v>3</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="50"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="23"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="6"/>
-      <c r="AZ37" s="6"/>
-      <c r="BA37" s="7"/>
+      <c r="L37" s="174"/>
+      <c r="M37" s="175"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="175"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="175"/>
+      <c r="U37" s="175"/>
+      <c r="V37" s="175"/>
+      <c r="W37" s="175"/>
+      <c r="X37" s="156"/>
+      <c r="Y37" s="156"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="153"/>
+      <c r="AB37" s="175"/>
+      <c r="AC37" s="175"/>
+      <c r="AD37" s="175"/>
+      <c r="AE37" s="156"/>
+      <c r="AF37" s="157"/>
+      <c r="AG37" s="156"/>
+      <c r="AH37" s="156"/>
+      <c r="AI37" s="181"/>
+      <c r="AJ37" s="181"/>
+      <c r="AK37" s="175"/>
+      <c r="AL37" s="156"/>
+      <c r="AM37" s="156"/>
+      <c r="AN37" s="174"/>
+      <c r="AO37" s="175"/>
+      <c r="AP37" s="175"/>
+      <c r="AQ37" s="175"/>
+      <c r="AR37" s="175"/>
+      <c r="AS37" s="156"/>
+      <c r="AT37" s="157"/>
+      <c r="AU37" s="174"/>
+      <c r="AV37" s="160"/>
+      <c r="AW37" s="175"/>
+      <c r="AX37" s="176"/>
+      <c r="AY37" s="176"/>
+      <c r="AZ37" s="176"/>
+      <c r="BA37" s="61"/>
     </row>
-    <row r="38" spans="1:53">
-      <c r="A38" s="120"/>
-      <c r="B38" s="119" t="s">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A38" s="107"/>
+      <c r="B38" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="78">
         <v>21</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="70"/>
+      <c r="G38" s="9">
         <v>2</v>
       </c>
-      <c r="G38" s="86"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="44"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="49"/>
-      <c r="AT38" s="50"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="23"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="7"/>
+      <c r="L38" s="174"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="175"/>
+      <c r="T38" s="175"/>
+      <c r="U38" s="175"/>
+      <c r="V38" s="175"/>
+      <c r="W38" s="175"/>
+      <c r="X38" s="156"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="182"/>
+      <c r="AA38" s="181"/>
+      <c r="AB38" s="175"/>
+      <c r="AC38" s="175"/>
+      <c r="AD38" s="175"/>
+      <c r="AE38" s="156"/>
+      <c r="AF38" s="157"/>
+      <c r="AG38" s="156"/>
+      <c r="AH38" s="156"/>
+      <c r="AI38" s="156"/>
+      <c r="AJ38" s="175"/>
+      <c r="AK38" s="175"/>
+      <c r="AL38" s="156"/>
+      <c r="AM38" s="156"/>
+      <c r="AN38" s="174"/>
+      <c r="AO38" s="175"/>
+      <c r="AP38" s="175"/>
+      <c r="AQ38" s="175"/>
+      <c r="AR38" s="175"/>
+      <c r="AS38" s="156"/>
+      <c r="AT38" s="157"/>
+      <c r="AU38" s="174"/>
+      <c r="AV38" s="160"/>
+      <c r="AW38" s="175"/>
+      <c r="AX38" s="176"/>
+      <c r="AY38" s="176"/>
+      <c r="AZ38" s="176"/>
+      <c r="BA38" s="61"/>
     </row>
-    <row r="39" spans="1:53">
-      <c r="A39" s="120"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="122" t="s">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A39" s="107"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="136">
+      <c r="D39" s="99">
         <v>22</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="70"/>
+      <c r="G39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="86"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4352,9 +4584,9 @@
       <c r="X39" s="55"/>
       <c r="Y39" s="55"/>
       <c r="Z39" s="36"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="49"/>
       <c r="AF39" s="50"/>
@@ -4378,18 +4610,18 @@
       <c r="AZ39" s="6"/>
       <c r="BA39" s="7"/>
     </row>
-    <row r="40" spans="1:53">
-      <c r="A40" s="120"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="77" t="s">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="70"/>
+      <c r="G40" s="5">
         <v>2</v>
       </c>
-      <c r="G40" s="86"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -4409,9 +4641,9 @@
       <c r="Y40" s="51"/>
       <c r="Z40" s="38"/>
       <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149"/>
+      <c r="AD40" s="149"/>
       <c r="AE40" s="51"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="51"/>
@@ -4436,18 +4668,18 @@
       <c r="AZ40" s="40"/>
       <c r="BA40" s="41"/>
     </row>
-    <row r="41" spans="1:53">
-      <c r="A41" s="121"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="76" t="s">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="9">
-        <v>2</v>
-      </c>
-      <c r="G41" s="87"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="9">
+        <v>3</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -4494,27 +4726,27 @@
       <c r="AZ41" s="40"/>
       <c r="BA41" s="41"/>
     </row>
-    <row r="42" spans="1:53">
-      <c r="A42" s="119" t="s">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A42" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="76">
         <v>23</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E42" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="9">
         <v>1</v>
-      </c>
-      <c r="G42" s="82" t="s">
-        <v>101</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -4526,15 +4758,15 @@
       <c r="P42" s="39"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="46"/>
-      <c r="S42" s="103" t="s">
+      <c r="S42" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="105"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="122"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="39"/>
       <c r="AB42" s="39"/>
@@ -4564,22 +4796,22 @@
       <c r="AZ42" s="40"/>
       <c r="BA42" s="41"/>
     </row>
-    <row r="43" spans="1:53">
-      <c r="A43" s="120"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120" t="s">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A43" s="107"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="133">
+      <c r="D43" s="93">
         <v>24</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="67"/>
+      <c r="G43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="83"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4590,13 +4822,13 @@
       <c r="P43" s="39"/>
       <c r="Q43" s="45"/>
       <c r="R43" s="46"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
+      <c r="S43" s="81"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
+      <c r="V43" s="81"/>
+      <c r="W43" s="81"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
@@ -4626,18 +4858,18 @@
       <c r="AZ43" s="40"/>
       <c r="BA43" s="41"/>
     </row>
-    <row r="44" spans="1:53">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="76" t="s">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="67"/>
+      <c r="G44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" s="83"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -4648,13 +4880,13 @@
       <c r="P44" s="39"/>
       <c r="Q44" s="45"/>
       <c r="R44" s="46"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
+      <c r="S44" s="81"/>
+      <c r="T44" s="81"/>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
@@ -4684,26 +4916,26 @@
       <c r="AZ44" s="40"/>
       <c r="BA44" s="41"/>
     </row>
-    <row r="45" spans="1:53">
-      <c r="A45" s="127" t="s">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A45" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="119" t="s">
+      <c r="C45" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="133">
+      <c r="D45" s="93">
         <v>25</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="67"/>
+      <c r="G45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="83"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -4714,13 +4946,13 @@
       <c r="P45" s="39"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="46"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
@@ -4750,18 +4982,18 @@
       <c r="AZ45" s="40"/>
       <c r="BA45" s="41"/>
     </row>
-    <row r="46" spans="1:53">
-      <c r="A46" s="128"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="77" t="s">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A46" s="104"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="67"/>
+      <c r="G46" s="5">
         <v>1</v>
       </c>
-      <c r="G46" s="83"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -4772,13 +5004,13 @@
       <c r="P46" s="39"/>
       <c r="Q46" s="45"/>
       <c r="R46" s="46"/>
-      <c r="S46" s="97"/>
-      <c r="T46" s="97"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="97"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="97"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="39"/>
       <c r="AB46" s="39"/>
@@ -4808,18 +5040,18 @@
       <c r="AZ46" s="40"/>
       <c r="BA46" s="41"/>
     </row>
-    <row r="47" spans="1:53">
-      <c r="A47" s="128"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="76" t="s">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A47" s="104"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="67"/>
+      <c r="G47" s="9">
         <v>1</v>
       </c>
-      <c r="G47" s="83"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -4830,13 +5062,13 @@
       <c r="P47" s="39"/>
       <c r="Q47" s="45"/>
       <c r="R47" s="46"/>
-      <c r="S47" s="97"/>
-      <c r="T47" s="97"/>
-      <c r="U47" s="97"/>
-      <c r="V47" s="97"/>
-      <c r="W47" s="97"/>
-      <c r="X47" s="97"/>
-      <c r="Y47" s="97"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="39"/>
       <c r="AB47" s="39"/>
@@ -4866,22 +5098,22 @@
       <c r="AZ47" s="40"/>
       <c r="BA47" s="41"/>
     </row>
-    <row r="48" spans="1:53">
-      <c r="A48" s="128"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="119" t="s">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A48" s="104"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="133">
+      <c r="D48" s="93">
         <v>26</v>
       </c>
-      <c r="E48" s="75" t="s">
+      <c r="E48" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="67"/>
+      <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="G48" s="83"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -4892,13 +5124,13 @@
       <c r="P48" s="39"/>
       <c r="Q48" s="45"/>
       <c r="R48" s="46"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="97"/>
-      <c r="U48" s="97"/>
-      <c r="V48" s="97"/>
-      <c r="W48" s="97"/>
-      <c r="X48" s="97"/>
-      <c r="Y48" s="97"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
       <c r="Z48" s="38"/>
       <c r="AA48" s="39"/>
       <c r="AB48" s="39"/>
@@ -4928,18 +5160,18 @@
       <c r="AZ48" s="40"/>
       <c r="BA48" s="41"/>
     </row>
-    <row r="49" spans="1:53">
-      <c r="A49" s="128"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="76" t="s">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A49" s="104"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="67"/>
+      <c r="G49" s="9">
         <v>1</v>
       </c>
-      <c r="G49" s="83"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -4950,13 +5182,13 @@
       <c r="P49" s="39"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="46"/>
-      <c r="S49" s="97"/>
-      <c r="T49" s="97"/>
-      <c r="U49" s="97"/>
-      <c r="V49" s="97"/>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="97"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="81"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="39"/>
       <c r="AB49" s="39"/>
@@ -4986,24 +5218,24 @@
       <c r="AZ49" s="40"/>
       <c r="BA49" s="41"/>
     </row>
-    <row r="50" spans="1:53">
-      <c r="A50" s="128"/>
-      <c r="B50" s="119" t="s">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A50" s="104"/>
+      <c r="B50" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="76">
         <v>27</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="67"/>
+      <c r="G50" s="31">
         <v>2</v>
       </c>
-      <c r="G50" s="83"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
@@ -5021,15 +5253,15 @@
       <c r="W50" s="39"/>
       <c r="X50" s="51"/>
       <c r="Y50" s="51"/>
-      <c r="Z50" s="103" t="s">
+      <c r="Z50" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="AA50" s="104"/>
-      <c r="AB50" s="104"/>
-      <c r="AC50" s="104"/>
-      <c r="AD50" s="104"/>
-      <c r="AE50" s="104"/>
-      <c r="AF50" s="105"/>
+      <c r="AA50" s="121"/>
+      <c r="AB50" s="121"/>
+      <c r="AC50" s="121"/>
+      <c r="AD50" s="121"/>
+      <c r="AE50" s="121"/>
+      <c r="AF50" s="122"/>
       <c r="AG50" s="51"/>
       <c r="AH50" s="51"/>
       <c r="AI50" s="51"/>
@@ -5052,22 +5284,22 @@
       <c r="AZ50" s="40"/>
       <c r="BA50" s="41"/>
     </row>
-    <row r="51" spans="1:53">
-      <c r="A51" s="128"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="59" t="s">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A51" s="104"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="95">
+      <c r="D51" s="79">
         <v>28</v>
       </c>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="67"/>
+      <c r="G51" s="9">
         <v>2</v>
       </c>
-      <c r="G51" s="83"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -5085,13 +5317,13 @@
       <c r="W51" s="39"/>
       <c r="X51" s="51"/>
       <c r="Y51" s="51"/>
-      <c r="Z51" s="98"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="97"/>
-      <c r="AF51" s="99"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="81"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="81"/>
+      <c r="AD51" s="81"/>
+      <c r="AE51" s="81"/>
+      <c r="AF51" s="83"/>
       <c r="AG51" s="51"/>
       <c r="AH51" s="51"/>
       <c r="AI51" s="51"/>
@@ -5114,24 +5346,24 @@
       <c r="AZ51" s="40"/>
       <c r="BA51" s="41"/>
     </row>
-    <row r="52" spans="1:53">
-      <c r="A52" s="128"/>
-      <c r="B52" s="125" t="s">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A52" s="104"/>
+      <c r="B52" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="131">
+      <c r="D52" s="96">
         <v>29</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="E52" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="67"/>
+      <c r="G52" s="4">
         <v>2</v>
       </c>
-      <c r="G52" s="83"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5149,13 +5381,13 @@
       <c r="W52" s="39"/>
       <c r="X52" s="51"/>
       <c r="Y52" s="51"/>
-      <c r="Z52" s="98"/>
-      <c r="AA52" s="97"/>
-      <c r="AB52" s="97"/>
-      <c r="AC52" s="97"/>
-      <c r="AD52" s="97"/>
-      <c r="AE52" s="97"/>
-      <c r="AF52" s="99"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="81"/>
+      <c r="AB52" s="81"/>
+      <c r="AC52" s="81"/>
+      <c r="AD52" s="81"/>
+      <c r="AE52" s="81"/>
+      <c r="AF52" s="83"/>
       <c r="AG52" s="51"/>
       <c r="AH52" s="51"/>
       <c r="AI52" s="51"/>
@@ -5178,21 +5410,21 @@
       <c r="AZ52" s="40"/>
       <c r="BA52" s="41"/>
     </row>
-    <row r="53" spans="1:53">
-      <c r="A53" s="128"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="31" t="s">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A53" s="104"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="67"/>
+      <c r="G53" s="9">
         <v>2</v>
       </c>
-      <c r="G53" s="83"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="70"/>
+      <c r="J53" s="62"/>
       <c r="L53" s="38"/>
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
@@ -5207,13 +5439,13 @@
       <c r="W53" s="39"/>
       <c r="X53" s="51"/>
       <c r="Y53" s="51"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="97"/>
-      <c r="AB53" s="97"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="97"/>
-      <c r="AE53" s="97"/>
-      <c r="AF53" s="99"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="81"/>
+      <c r="AB53" s="81"/>
+      <c r="AC53" s="81"/>
+      <c r="AD53" s="81"/>
+      <c r="AE53" s="81"/>
+      <c r="AF53" s="83"/>
       <c r="AG53" s="51"/>
       <c r="AH53" s="51"/>
       <c r="AI53" s="51"/>
@@ -5236,24 +5468,24 @@
       <c r="AZ53" s="40"/>
       <c r="BA53" s="41"/>
     </row>
-    <row r="54" spans="1:53">
-      <c r="A54" s="128"/>
-      <c r="B54" s="126" t="s">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A54" s="104"/>
+      <c r="B54" s="102" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="96">
+      <c r="D54" s="80">
         <v>30</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="67"/>
+      <c r="G54" s="31">
         <v>3</v>
       </c>
-      <c r="G54" s="83"/>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
@@ -5272,13 +5504,13 @@
       <c r="W54" s="39"/>
       <c r="X54" s="51"/>
       <c r="Y54" s="51"/>
-      <c r="Z54" s="98"/>
-      <c r="AA54" s="97"/>
-      <c r="AB54" s="97"/>
-      <c r="AC54" s="97"/>
-      <c r="AD54" s="97"/>
-      <c r="AE54" s="97"/>
-      <c r="AF54" s="99"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="81"/>
+      <c r="AB54" s="81"/>
+      <c r="AC54" s="81"/>
+      <c r="AD54" s="81"/>
+      <c r="AE54" s="81"/>
+      <c r="AF54" s="83"/>
       <c r="AG54" s="51"/>
       <c r="AH54" s="51"/>
       <c r="AI54" s="51"/>
@@ -5301,22 +5533,22 @@
       <c r="AZ54" s="40"/>
       <c r="BA54" s="41"/>
     </row>
-    <row r="55" spans="1:53">
-      <c r="A55" s="129"/>
-      <c r="B55" s="126"/>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.75">
+      <c r="A55" s="105"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="96">
+      <c r="D55" s="80">
         <v>31</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="68"/>
+      <c r="G55" s="9">
         <v>3</v>
       </c>
-      <c r="G55" s="84"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -5334,13 +5566,13 @@
       <c r="W55" s="39"/>
       <c r="X55" s="51"/>
       <c r="Y55" s="51"/>
-      <c r="Z55" s="98"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="97"/>
-      <c r="AE55" s="97"/>
-      <c r="AF55" s="99"/>
+      <c r="Z55" s="82"/>
+      <c r="AA55" s="81"/>
+      <c r="AB55" s="81"/>
+      <c r="AC55" s="81"/>
+      <c r="AD55" s="81"/>
+      <c r="AE55" s="81"/>
+      <c r="AF55" s="83"/>
       <c r="AG55" s="51"/>
       <c r="AH55" s="51"/>
       <c r="AI55" s="51"/>
@@ -5363,58 +5595,12 @@
       <c r="AZ55" s="40"/>
       <c r="BA55" s="41"/>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.75">
       <c r="K56" s="29"/>
       <c r="AW56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="S42:Y42"/>
     <mergeCell ref="Z50:AF50"/>
     <mergeCell ref="Z28:AF28"/>
@@ -5431,6 +5617,52 @@
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과물/WBS.xlsx
+++ b/결과물/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bethe\Desktop\부스트캠프\archive\결과물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7A342-44E1-4898-8F86-6707C8C8E52B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75713290-3659-493B-A288-9AB45B2287B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
     <numFmt numFmtId="165" formatCode="###\ "/>
     <numFmt numFmtId="166" formatCode="000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +543,11 @@
       <name val="나눔스퀘어"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="나눔스퀘어"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -819,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,9 +993,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,6 +1101,210 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,23 +1314,32 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1138,235 +1353,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1693,59 +1692,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP34" sqref="BP34"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" outlineLevelRow="1" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="3" width="16" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6.1875" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1875" style="74" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
     <col min="6" max="7" width="4.1875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.8125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0" style="12" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="12"/>
     <col min="11" max="11" width="3.6875" style="12" customWidth="1"/>
-    <col min="12" max="49" width="2.3125" style="29" customWidth="1"/>
-    <col min="50" max="53" width="2.3125" style="12" customWidth="1"/>
+    <col min="12" max="49" width="2.5625" style="29" customWidth="1"/>
+    <col min="50" max="53" width="2.5625" style="12" customWidth="1"/>
     <col min="54" max="115" width="3.1875" style="12" customWidth="1"/>
     <col min="116" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="149" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1858,16 +1857,16 @@
       <c r="DA1" s="14"/>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="L2" s="16">
         <v>43486</v>
       </c>
@@ -1910,13 +1909,13 @@
       <c r="Y2" s="42">
         <v>43499</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="17">
         <v>43500</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="17">
         <v>43501</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="17">
         <v>43502</v>
       </c>
       <c r="AC2" s="16">
@@ -1931,13 +1930,13 @@
       <c r="AF2" s="42">
         <v>43506</v>
       </c>
-      <c r="AG2" s="42">
+      <c r="AG2" s="180">
         <v>43507</v>
       </c>
-      <c r="AH2" s="42">
+      <c r="AH2" s="180">
         <v>43508</v>
       </c>
-      <c r="AI2" s="42">
+      <c r="AI2" s="180">
         <v>43509</v>
       </c>
       <c r="AJ2" s="16">
@@ -2048,22 +2047,22 @@
       <c r="DA2" s="19"/>
     </row>
     <row r="3" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="157">
         <v>3</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="62" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="4">
@@ -2084,8 +2083,8 @@
       <c r="R3" s="44"/>
       <c r="S3" s="20"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
       <c r="W3" s="21"/>
       <c r="X3" s="49"/>
       <c r="Y3" s="50"/>
@@ -2096,9 +2095,9 @@
       <c r="AD3" s="21"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="50"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
       <c r="AJ3" s="21"/>
       <c r="AK3" s="21"/>
       <c r="AL3" s="49"/>
@@ -2171,14 +2170,14 @@
       <c r="DA3" s="24"/>
     </row>
     <row r="4" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="113"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="127" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
@@ -2195,8 +2194,8 @@
       <c r="R4" s="44"/>
       <c r="S4" s="20"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
       <c r="W4" s="21"/>
       <c r="X4" s="49"/>
       <c r="Y4" s="50"/>
@@ -2207,9 +2206,9 @@
       <c r="AD4" s="21"/>
       <c r="AE4" s="49"/>
       <c r="AF4" s="50"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
       <c r="AJ4" s="21"/>
       <c r="AK4" s="21"/>
       <c r="AL4" s="49"/>
@@ -2282,14 +2281,14 @@
       <c r="DA4" s="24"/>
     </row>
     <row r="5" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="113"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="127" t="s">
+      <c r="A5" s="164"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="5">
         <v>1</v>
       </c>
@@ -2306,8 +2305,8 @@
       <c r="R5" s="44"/>
       <c r="S5" s="20"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="21"/>
       <c r="X5" s="49"/>
       <c r="Y5" s="50"/>
@@ -2318,9 +2317,9 @@
       <c r="AD5" s="21"/>
       <c r="AE5" s="49"/>
       <c r="AF5" s="50"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
       <c r="AK5" s="21"/>
       <c r="AL5" s="49"/>
@@ -2393,14 +2392,14 @@
       <c r="DA5" s="24"/>
     </row>
     <row r="6" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="113"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="128" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="9">
         <v>1</v>
       </c>
@@ -2420,8 +2419,8 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="150"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="116"/>
       <c r="Z6" s="25"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
@@ -2429,9 +2428,9 @@
       <c r="AD6" s="26"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="52"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
       <c r="AJ6" s="26"/>
       <c r="AK6" s="26"/>
       <c r="AL6" s="51"/>
@@ -2504,18 +2503,18 @@
       <c r="DA6" s="24"/>
     </row>
     <row r="7" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="113"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="110" t="s">
+      <c r="A7" s="164"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="157">
         <v>4</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -2534,7 +2533,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="87"/>
+      <c r="W7" s="86"/>
       <c r="X7" s="49"/>
       <c r="Y7" s="50"/>
       <c r="Z7" s="20"/>
@@ -2544,9 +2543,9 @@
       <c r="AD7" s="21"/>
       <c r="AE7" s="49"/>
       <c r="AF7" s="50"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
       <c r="AJ7" s="21"/>
       <c r="AK7" s="21"/>
       <c r="AL7" s="49"/>
@@ -2619,14 +2618,14 @@
       <c r="DA7" s="24"/>
     </row>
     <row r="8" spans="1:105" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="113"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="130" t="s">
+      <c r="A8" s="164"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="64"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="5">
         <v>1</v>
       </c>
@@ -2645,7 +2644,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="87"/>
+      <c r="W8" s="86"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="50"/>
       <c r="Z8" s="20"/>
@@ -2655,9 +2654,9 @@
       <c r="AD8" s="21"/>
       <c r="AE8" s="49"/>
       <c r="AF8" s="50"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
       <c r="AJ8" s="21"/>
       <c r="AK8" s="21"/>
       <c r="AL8" s="49"/>
@@ -2730,14 +2729,14 @@
       <c r="DA8" s="24"/>
     </row>
     <row r="9" spans="1:105" ht="18.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="113"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="131" t="s">
+      <c r="A9" s="164"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="11">
         <v>1</v>
       </c>
@@ -2751,8 +2750,8 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="46"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="88"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -2765,9 +2764,9 @@
       <c r="AD9" s="26"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="52"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
       <c r="AJ9" s="26"/>
       <c r="AK9" s="26"/>
       <c r="AL9" s="51"/>
@@ -2788,80 +2787,80 @@
       <c r="BA9" s="27"/>
     </row>
     <row r="10" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A10" s="113"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="58" t="s">
+      <c r="A10" s="164"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>7</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="31">
         <v>1</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="156"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="156"/>
-      <c r="AM10" s="157"/>
-      <c r="AN10" s="152"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="153"/>
-      <c r="AQ10" s="153"/>
-      <c r="AR10" s="153"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="157"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="153"/>
-      <c r="AX10" s="153"/>
-      <c r="AY10" s="153"/>
-      <c r="AZ10" s="153"/>
-      <c r="BA10" s="161"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="122"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="118"/>
+      <c r="AX10" s="118"/>
+      <c r="AY10" s="118"/>
+      <c r="AZ10" s="118"/>
+      <c r="BA10" s="125"/>
     </row>
     <row r="11" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A11" s="113"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="110" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="157">
         <v>8</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="5">
         <v>2</v>
       </c>
@@ -2883,16 +2882,16 @@
       <c r="W11" s="33"/>
       <c r="X11" s="53"/>
       <c r="Y11" s="54"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="90"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="89"/>
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
       <c r="AE11" s="53"/>
       <c r="AF11" s="54"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="33"/>
       <c r="AL11" s="53"/>
@@ -2913,14 +2912,14 @@
       <c r="BA11" s="34"/>
     </row>
     <row r="12" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A12" s="113"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="133" t="s">
+      <c r="A12" s="164"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="9">
         <v>2</v>
       </c>
@@ -2941,16 +2940,16 @@
       <c r="W12" s="26"/>
       <c r="X12" s="51"/>
       <c r="Y12" s="52"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="89"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="88"/>
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="51"/>
       <c r="AF12" s="52"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
       <c r="AJ12" s="26"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="51"/>
@@ -2971,24 +2970,24 @@
       <c r="BA12" s="27"/>
     </row>
     <row r="13" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A13" s="113"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="110" t="s">
+      <c r="A13" s="164"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="157">
         <v>9</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="59">
+      <c r="F13" s="63"/>
+      <c r="G13" s="58">
         <v>3</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
       <c r="L13" s="32"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
@@ -3010,9 +3009,9 @@
       <c r="AD13" s="33"/>
       <c r="AE13" s="53"/>
       <c r="AF13" s="54"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="33"/>
       <c r="AL13" s="53"/>
@@ -3033,14 +3032,14 @@
       <c r="BA13" s="34"/>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A14" s="113"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="129" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="9">
         <v>3</v>
       </c>
@@ -3068,9 +3067,9 @@
       <c r="AD14" s="26"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="52"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
       <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
       <c r="AL14" s="51"/>
@@ -3091,18 +3090,18 @@
       <c r="BA14" s="27"/>
     </row>
     <row r="15" spans="1:105" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="113"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="110" t="s">
+      <c r="A15" s="164"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="157">
         <v>10</v>
       </c>
-      <c r="E15" s="134" t="s">
+      <c r="E15" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="10">
         <v>2</v>
       </c>
@@ -3131,9 +3130,9 @@
       <c r="AD15" s="33"/>
       <c r="AE15" s="53"/>
       <c r="AF15" s="54"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="33"/>
       <c r="AL15" s="53"/>
@@ -3154,14 +3153,14 @@
       <c r="BA15" s="34"/>
     </row>
     <row r="16" spans="1:105" x14ac:dyDescent="0.75">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="131" t="s">
+      <c r="A16" s="164"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="9">
         <v>2</v>
       </c>
@@ -3190,9 +3189,9 @@
       <c r="AD16" s="26"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="52"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
       <c r="AJ16" s="26"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="51"/>
@@ -3213,28 +3212,28 @@
       <c r="BA16" s="27"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A17" s="113"/>
-      <c r="B17" s="106" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="157">
         <v>11</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="59">
         <v>3</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="6"/>
       <c r="L17" s="32"/>
       <c r="M17" s="33"/>
@@ -3257,12 +3256,12 @@
       <c r="AD17" s="33"/>
       <c r="AE17" s="53"/>
       <c r="AF17" s="54"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
       <c r="AJ17" s="33"/>
-      <c r="AK17" s="180"/>
-      <c r="AL17" s="180"/>
+      <c r="AK17" s="143"/>
+      <c r="AL17" s="143"/>
       <c r="AM17" s="54"/>
       <c r="AN17" s="32"/>
       <c r="AO17" s="33"/>
@@ -3280,14 +3279,14 @@
       <c r="BA17" s="34"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A18" s="113"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="129" t="s">
+      <c r="A18" s="164"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="5">
         <v>3</v>
       </c>
@@ -3315,12 +3314,12 @@
       <c r="AD18" s="21"/>
       <c r="AE18" s="49"/>
       <c r="AF18" s="50"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
       <c r="AJ18" s="21"/>
-      <c r="AK18" s="148"/>
-      <c r="AL18" s="148"/>
+      <c r="AK18" s="114"/>
+      <c r="AL18" s="114"/>
       <c r="AM18" s="50"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="21"/>
@@ -3338,14 +3337,14 @@
       <c r="BA18" s="22"/>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A19" s="113"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="135" t="s">
+      <c r="A19" s="164"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="9">
         <v>3</v>
       </c>
@@ -3373,12 +3372,12 @@
       <c r="AD19" s="26"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="52"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149"/>
+      <c r="AK19" s="115"/>
+      <c r="AL19" s="115"/>
       <c r="AM19" s="51"/>
       <c r="AN19" s="25"/>
       <c r="AO19" s="26"/>
@@ -3396,76 +3395,76 @@
       <c r="BA19" s="27"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A20" s="113"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="106" t="s">
+      <c r="A20" s="164"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="160">
         <v>12</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="5">
         <v>3</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="48"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
       <c r="AE20" s="53"/>
       <c r="AF20" s="54"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="128"/>
+      <c r="AK20" s="128"/>
       <c r="AL20" s="53"/>
       <c r="AM20" s="53"/>
-      <c r="AN20" s="164"/>
-      <c r="AO20" s="165"/>
-      <c r="AP20" s="165"/>
-      <c r="AQ20" s="165"/>
-      <c r="AR20" s="165"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="128"/>
+      <c r="AP20" s="128"/>
+      <c r="AQ20" s="128"/>
+      <c r="AR20" s="128"/>
       <c r="AS20" s="53"/>
       <c r="AT20" s="54"/>
-      <c r="AU20" s="164"/>
+      <c r="AU20" s="127"/>
       <c r="AV20" s="35"/>
-      <c r="AW20" s="165"/>
-      <c r="AX20" s="166"/>
-      <c r="AY20" s="166"/>
-      <c r="AZ20" s="166"/>
-      <c r="BA20" s="167"/>
+      <c r="AW20" s="128"/>
+      <c r="AX20" s="129"/>
+      <c r="AY20" s="129"/>
+      <c r="AZ20" s="129"/>
+      <c r="BA20" s="130"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A21" s="113"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="129" t="s">
+      <c r="A21" s="164"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="5">
         <v>3</v>
       </c>
@@ -3493,9 +3492,9 @@
       <c r="AD21" s="37"/>
       <c r="AE21" s="49"/>
       <c r="AF21" s="50"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
       <c r="AJ21" s="37"/>
       <c r="AK21" s="37"/>
       <c r="AL21" s="49"/>
@@ -3516,14 +3515,14 @@
       <c r="BA21" s="7"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A22" s="113"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="131" t="s">
+      <c r="A22" s="164"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="30">
         <v>3</v>
       </c>
@@ -3551,9 +3550,9 @@
       <c r="AD22" s="39"/>
       <c r="AE22" s="51"/>
       <c r="AF22" s="52"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
       <c r="AJ22" s="39"/>
       <c r="AK22" s="39"/>
       <c r="AL22" s="51"/>
@@ -3574,20 +3573,20 @@
       <c r="BA22" s="41"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A23" s="113"/>
-      <c r="B23" s="106" t="s">
+      <c r="A23" s="164"/>
+      <c r="B23" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="157">
         <v>13</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="71" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="5">
@@ -3596,58 +3595,58 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
       <c r="X23" s="53"/>
       <c r="Y23" s="53"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
       <c r="AE23" s="53"/>
       <c r="AF23" s="54"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
       <c r="AL23" s="53"/>
       <c r="AM23" s="53"/>
-      <c r="AN23" s="164"/>
-      <c r="AO23" s="165"/>
-      <c r="AP23" s="165"/>
-      <c r="AQ23" s="165"/>
-      <c r="AR23" s="165"/>
+      <c r="AN23" s="127"/>
+      <c r="AO23" s="128"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="128"/>
+      <c r="AR23" s="128"/>
       <c r="AS23" s="53"/>
       <c r="AT23" s="54"/>
-      <c r="AU23" s="164"/>
+      <c r="AU23" s="127"/>
       <c r="AV23" s="35"/>
-      <c r="AW23" s="165"/>
-      <c r="AX23" s="166"/>
-      <c r="AY23" s="166"/>
-      <c r="AZ23" s="166"/>
-      <c r="BA23" s="167"/>
+      <c r="AW23" s="128"/>
+      <c r="AX23" s="129"/>
+      <c r="AY23" s="129"/>
+      <c r="AZ23" s="129"/>
+      <c r="BA23" s="130"/>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A24" s="113"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="136" t="s">
+      <c r="A24" s="164"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="8">
         <v>2</v>
       </c>
@@ -3659,8 +3658,8 @@
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="91"/>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
@@ -3675,9 +3674,9 @@
       <c r="AD24" s="37"/>
       <c r="AE24" s="49"/>
       <c r="AF24" s="50"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
       <c r="AJ24" s="37"/>
       <c r="AK24" s="37"/>
       <c r="AL24" s="49"/>
@@ -3698,14 +3697,14 @@
       <c r="BA24" s="7"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A25" s="113"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="137" t="s">
+      <c r="A25" s="164"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="73"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="9">
         <v>2</v>
       </c>
@@ -3717,8 +3716,8 @@
       <c r="N25" s="39"/>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
-      <c r="Q25" s="168"/>
-      <c r="R25" s="169"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
       <c r="S25" s="39"/>
       <c r="T25" s="39"/>
       <c r="U25" s="39"/>
@@ -3733,9 +3732,9 @@
       <c r="AD25" s="39"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="52"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
       <c r="AJ25" s="39"/>
       <c r="AK25" s="39"/>
       <c r="AL25" s="51"/>
@@ -3756,76 +3755,76 @@
       <c r="BA25" s="41"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A26" s="113"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="110" t="s">
+      <c r="A26" s="164"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="157">
         <v>14</v>
       </c>
-      <c r="E26" s="138" t="s">
+      <c r="E26" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="8">
         <v>2</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="171"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="53"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
       <c r="AE26" s="53"/>
       <c r="AF26" s="54"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
       <c r="AL26" s="53"/>
       <c r="AM26" s="53"/>
-      <c r="AN26" s="164"/>
-      <c r="AO26" s="165"/>
-      <c r="AP26" s="165"/>
-      <c r="AQ26" s="165"/>
-      <c r="AR26" s="165"/>
+      <c r="AN26" s="127"/>
+      <c r="AO26" s="128"/>
+      <c r="AP26" s="128"/>
+      <c r="AQ26" s="128"/>
+      <c r="AR26" s="128"/>
       <c r="AS26" s="53"/>
       <c r="AT26" s="54"/>
-      <c r="AU26" s="164"/>
+      <c r="AU26" s="127"/>
       <c r="AV26" s="35"/>
-      <c r="AW26" s="165"/>
-      <c r="AX26" s="166"/>
-      <c r="AY26" s="166"/>
-      <c r="AZ26" s="166"/>
-      <c r="BA26" s="167"/>
+      <c r="AW26" s="128"/>
+      <c r="AX26" s="129"/>
+      <c r="AY26" s="129"/>
+      <c r="AZ26" s="129"/>
+      <c r="BA26" s="130"/>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A27" s="113"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="131" t="s">
+      <c r="A27" s="164"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="9">
         <v>2</v>
       </c>
@@ -3837,8 +3836,8 @@
       <c r="N27" s="39"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="173"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="136"/>
       <c r="S27" s="39"/>
       <c r="T27" s="39"/>
       <c r="U27" s="39"/>
@@ -3853,9 +3852,9 @@
       <c r="AD27" s="39"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="52"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
       <c r="AJ27" s="39"/>
       <c r="AK27" s="39"/>
       <c r="AL27" s="51"/>
@@ -3876,20 +3875,20 @@
       <c r="BA27" s="41"/>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A28" s="113"/>
-      <c r="B28" s="106" t="s">
+      <c r="A28" s="164"/>
+      <c r="B28" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>15</v>
       </c>
-      <c r="E28" s="139" t="s">
+      <c r="E28" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="65" t="s">
         <v>101</v>
       </c>
       <c r="G28" s="31">
@@ -3898,122 +3897,122 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="175"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="120" t="s">
+      <c r="L28" s="137"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="175"/>
-      <c r="AK28" s="175"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="174"/>
-      <c r="AO28" s="175"/>
-      <c r="AP28" s="175"/>
-      <c r="AQ28" s="175"/>
-      <c r="AR28" s="175"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="157"/>
-      <c r="AU28" s="174"/>
-      <c r="AV28" s="160"/>
-      <c r="AW28" s="175"/>
-      <c r="AX28" s="176"/>
-      <c r="AY28" s="176"/>
-      <c r="AZ28" s="176"/>
-      <c r="BA28" s="61"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="121"/>
+      <c r="AM28" s="121"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="121"/>
+      <c r="AT28" s="122"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="139"/>
+      <c r="AY28" s="139"/>
+      <c r="AZ28" s="139"/>
+      <c r="BA28" s="60"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A29" s="113"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="110" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="157">
         <v>16</v>
       </c>
-      <c r="E29" s="134" t="s">
+      <c r="E29" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="4">
         <v>3</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
       <c r="Q29" s="47"/>
       <c r="R29" s="48"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="165"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
       <c r="X29" s="53"/>
       <c r="Y29" s="53"/>
-      <c r="Z29" s="177"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="165"/>
-      <c r="AK29" s="165"/>
+      <c r="Z29" s="140"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="141"/>
+      <c r="AC29" s="141"/>
+      <c r="AD29" s="141"/>
+      <c r="AE29" s="141"/>
+      <c r="AF29" s="142"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="128"/>
+      <c r="AK29" s="128"/>
       <c r="AL29" s="53"/>
       <c r="AM29" s="53"/>
-      <c r="AN29" s="164"/>
-      <c r="AO29" s="165"/>
-      <c r="AP29" s="165"/>
-      <c r="AQ29" s="165"/>
-      <c r="AR29" s="165"/>
+      <c r="AN29" s="127"/>
+      <c r="AO29" s="128"/>
+      <c r="AP29" s="128"/>
+      <c r="AQ29" s="128"/>
+      <c r="AR29" s="128"/>
       <c r="AS29" s="53"/>
       <c r="AT29" s="54"/>
-      <c r="AU29" s="164"/>
+      <c r="AU29" s="127"/>
       <c r="AV29" s="35"/>
-      <c r="AW29" s="165"/>
-      <c r="AX29" s="166"/>
-      <c r="AY29" s="166"/>
-      <c r="AZ29" s="166"/>
-      <c r="BA29" s="167"/>
+      <c r="AW29" s="128"/>
+      <c r="AX29" s="129"/>
+      <c r="AY29" s="129"/>
+      <c r="AZ29" s="129"/>
+      <c r="BA29" s="130"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A30" s="113"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="129" t="s">
+      <c r="A30" s="164"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="67"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="5">
         <v>3</v>
       </c>
@@ -4034,16 +4033,16 @@
       <c r="W30" s="37"/>
       <c r="X30" s="49"/>
       <c r="Y30" s="49"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
       <c r="AL30" s="49"/>
@@ -4064,14 +4063,14 @@
       <c r="BA30" s="7"/>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A31" s="113"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="131" t="s">
+      <c r="A31" s="164"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="9">
         <v>3</v>
       </c>
@@ -4092,16 +4091,16 @@
       <c r="W31" s="39"/>
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="80"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
       <c r="AL31" s="51"/>
@@ -4122,22 +4121,22 @@
       <c r="BA31" s="41"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="110" t="s">
+      <c r="C32" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="157">
         <v>17</v>
       </c>
-      <c r="E32" s="140" t="s">
+      <c r="E32" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="4">
@@ -4146,58 +4145,58 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="48"/>
-      <c r="S32" s="180"/>
-      <c r="T32" s="180"/>
-      <c r="U32" s="165"/>
-      <c r="V32" s="165"/>
-      <c r="W32" s="165"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
       <c r="X32" s="53"/>
       <c r="Y32" s="53"/>
-      <c r="Z32" s="164"/>
-      <c r="AA32" s="165"/>
-      <c r="AB32" s="165"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="165"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
       <c r="AE32" s="53"/>
       <c r="AF32" s="54"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="165"/>
-      <c r="AK32" s="165"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="128"/>
+      <c r="AK32" s="128"/>
       <c r="AL32" s="53"/>
       <c r="AM32" s="53"/>
-      <c r="AN32" s="164"/>
-      <c r="AO32" s="165"/>
-      <c r="AP32" s="165"/>
-      <c r="AQ32" s="165"/>
-      <c r="AR32" s="165"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="128"/>
+      <c r="AP32" s="128"/>
+      <c r="AQ32" s="128"/>
+      <c r="AR32" s="128"/>
       <c r="AS32" s="53"/>
       <c r="AT32" s="54"/>
-      <c r="AU32" s="164"/>
+      <c r="AU32" s="127"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="165"/>
-      <c r="AX32" s="166"/>
-      <c r="AY32" s="166"/>
-      <c r="AZ32" s="166"/>
-      <c r="BA32" s="167"/>
+      <c r="AW32" s="128"/>
+      <c r="AX32" s="129"/>
+      <c r="AY32" s="129"/>
+      <c r="AZ32" s="129"/>
+      <c r="BA32" s="130"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="131" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="70"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="9">
         <v>1</v>
       </c>
@@ -4211,8 +4210,8 @@
       <c r="P33" s="39"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="46"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
       <c r="U33" s="39"/>
       <c r="V33" s="39"/>
       <c r="W33" s="39"/>
@@ -4225,9 +4224,9 @@
       <c r="AD33" s="39"/>
       <c r="AE33" s="51"/>
       <c r="AF33" s="52"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
       <c r="AJ33" s="39"/>
       <c r="AK33" s="39"/>
       <c r="AL33" s="51"/>
@@ -4248,138 +4247,138 @@
       <c r="BA33" s="41"/>
     </row>
     <row r="34" spans="1:53" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="58" t="s">
+      <c r="A34" s="169"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="75">
         <v>18</v>
       </c>
-      <c r="E34" s="141" t="s">
+      <c r="E34" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="31">
         <v>1</v>
       </c>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="175"/>
-      <c r="T34" s="181"/>
-      <c r="U34" s="181"/>
-      <c r="V34" s="181"/>
-      <c r="W34" s="175"/>
-      <c r="X34" s="156"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="174"/>
-      <c r="AA34" s="175"/>
-      <c r="AB34" s="175"/>
-      <c r="AC34" s="175"/>
-      <c r="AD34" s="175"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="157"/>
-      <c r="AG34" s="156"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="156"/>
-      <c r="AJ34" s="175"/>
-      <c r="AK34" s="175"/>
-      <c r="AL34" s="156"/>
-      <c r="AM34" s="156"/>
-      <c r="AN34" s="174"/>
-      <c r="AO34" s="175"/>
-      <c r="AP34" s="175"/>
-      <c r="AQ34" s="175"/>
-      <c r="AR34" s="175"/>
-      <c r="AS34" s="156"/>
-      <c r="AT34" s="157"/>
-      <c r="AU34" s="174"/>
-      <c r="AV34" s="160"/>
-      <c r="AW34" s="175"/>
-      <c r="AX34" s="176"/>
-      <c r="AY34" s="176"/>
-      <c r="AZ34" s="176"/>
-      <c r="BA34" s="61"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="144"/>
+      <c r="U34" s="144"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="138"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="138"/>
+      <c r="AB34" s="138"/>
+      <c r="AC34" s="138"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="118"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="118"/>
+      <c r="AJ34" s="138"/>
+      <c r="AK34" s="138"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="137"/>
+      <c r="AO34" s="138"/>
+      <c r="AP34" s="138"/>
+      <c r="AQ34" s="138"/>
+      <c r="AR34" s="138"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="122"/>
+      <c r="AU34" s="137"/>
+      <c r="AV34" s="124"/>
+      <c r="AW34" s="138"/>
+      <c r="AX34" s="139"/>
+      <c r="AY34" s="139"/>
+      <c r="AZ34" s="139"/>
+      <c r="BA34" s="60"/>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="110" t="s">
+      <c r="A35" s="169"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="98">
+      <c r="D35" s="157">
         <v>19</v>
       </c>
-      <c r="E35" s="142" t="s">
+      <c r="E35" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="4">
         <v>1</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="165"/>
-      <c r="P35" s="165"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="48"/>
-      <c r="S35" s="165"/>
-      <c r="T35" s="165"/>
-      <c r="U35" s="165"/>
-      <c r="V35" s="180"/>
-      <c r="W35" s="180"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="143"/>
       <c r="X35" s="53"/>
       <c r="Y35" s="53"/>
-      <c r="Z35" s="164"/>
-      <c r="AA35" s="165"/>
-      <c r="AB35" s="165"/>
-      <c r="AC35" s="165"/>
-      <c r="AD35" s="165"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128"/>
+      <c r="AD35" s="128"/>
       <c r="AE35" s="53"/>
       <c r="AF35" s="54"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="165"/>
-      <c r="AK35" s="165"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="128"/>
+      <c r="AK35" s="128"/>
       <c r="AL35" s="53"/>
       <c r="AM35" s="53"/>
-      <c r="AN35" s="164"/>
-      <c r="AO35" s="165"/>
-      <c r="AP35" s="165"/>
-      <c r="AQ35" s="165"/>
-      <c r="AR35" s="165"/>
+      <c r="AN35" s="127"/>
+      <c r="AO35" s="128"/>
+      <c r="AP35" s="128"/>
+      <c r="AQ35" s="128"/>
+      <c r="AR35" s="128"/>
       <c r="AS35" s="53"/>
       <c r="AT35" s="54"/>
-      <c r="AU35" s="164"/>
+      <c r="AU35" s="127"/>
       <c r="AV35" s="35"/>
-      <c r="AW35" s="165"/>
-      <c r="AX35" s="166"/>
-      <c r="AY35" s="166"/>
-      <c r="AZ35" s="166"/>
-      <c r="BA35" s="167"/>
+      <c r="AW35" s="128"/>
+      <c r="AX35" s="129"/>
+      <c r="AY35" s="129"/>
+      <c r="AZ35" s="129"/>
+      <c r="BA35" s="130"/>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="143" t="s">
+      <c r="A36" s="169"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="9">
         <v>1</v>
       </c>
@@ -4396,8 +4395,8 @@
       <c r="S36" s="39"/>
       <c r="T36" s="39"/>
       <c r="U36" s="39"/>
-      <c r="V36" s="149"/>
-      <c r="W36" s="149"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
       <c r="Z36" s="38"/>
@@ -4407,9 +4406,9 @@
       <c r="AD36" s="39"/>
       <c r="AE36" s="51"/>
       <c r="AF36" s="52"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
       <c r="AJ36" s="39"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="51"/>
@@ -4430,144 +4429,144 @@
       <c r="BA36" s="41"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="58" t="s">
+      <c r="A37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="76">
         <v>20</v>
       </c>
-      <c r="E37" s="144" t="s">
+      <c r="E37" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="70"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="9">
         <v>3</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="L37" s="174"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="154"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="175"/>
-      <c r="T37" s="175"/>
-      <c r="U37" s="175"/>
-      <c r="V37" s="175"/>
-      <c r="W37" s="175"/>
-      <c r="X37" s="156"/>
-      <c r="Y37" s="156"/>
-      <c r="Z37" s="152"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="175"/>
-      <c r="AC37" s="175"/>
-      <c r="AD37" s="175"/>
-      <c r="AE37" s="156"/>
-      <c r="AF37" s="157"/>
-      <c r="AG37" s="156"/>
-      <c r="AH37" s="156"/>
-      <c r="AI37" s="181"/>
-      <c r="AJ37" s="181"/>
-      <c r="AK37" s="175"/>
-      <c r="AL37" s="156"/>
-      <c r="AM37" s="156"/>
-      <c r="AN37" s="174"/>
-      <c r="AO37" s="175"/>
-      <c r="AP37" s="175"/>
-      <c r="AQ37" s="175"/>
-      <c r="AR37" s="175"/>
-      <c r="AS37" s="156"/>
-      <c r="AT37" s="157"/>
-      <c r="AU37" s="174"/>
-      <c r="AV37" s="160"/>
-      <c r="AW37" s="175"/>
-      <c r="AX37" s="176"/>
-      <c r="AY37" s="176"/>
-      <c r="AZ37" s="176"/>
-      <c r="BA37" s="61"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="138"/>
+      <c r="V37" s="138"/>
+      <c r="W37" s="138"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="138"/>
+      <c r="AC37" s="138"/>
+      <c r="AD37" s="138"/>
+      <c r="AE37" s="121"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="118"/>
+      <c r="AH37" s="118"/>
+      <c r="AI37" s="118"/>
+      <c r="AJ37" s="144"/>
+      <c r="AK37" s="138"/>
+      <c r="AL37" s="121"/>
+      <c r="AM37" s="121"/>
+      <c r="AN37" s="137"/>
+      <c r="AO37" s="138"/>
+      <c r="AP37" s="138"/>
+      <c r="AQ37" s="138"/>
+      <c r="AR37" s="138"/>
+      <c r="AS37" s="121"/>
+      <c r="AT37" s="122"/>
+      <c r="AU37" s="137"/>
+      <c r="AV37" s="124"/>
+      <c r="AW37" s="138"/>
+      <c r="AX37" s="139"/>
+      <c r="AY37" s="139"/>
+      <c r="AZ37" s="139"/>
+      <c r="BA37" s="60"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A38" s="107"/>
-      <c r="B38" s="106" t="s">
+      <c r="A38" s="169"/>
+      <c r="B38" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="78">
+      <c r="D38" s="77">
         <v>21</v>
       </c>
-      <c r="E38" s="145" t="s">
+      <c r="E38" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="70"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="9">
         <v>2</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="L38" s="174"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="154"/>
-      <c r="R38" s="155"/>
-      <c r="S38" s="175"/>
-      <c r="T38" s="175"/>
-      <c r="U38" s="175"/>
-      <c r="V38" s="175"/>
-      <c r="W38" s="175"/>
-      <c r="X38" s="156"/>
-      <c r="Y38" s="156"/>
-      <c r="Z38" s="182"/>
-      <c r="AA38" s="181"/>
-      <c r="AB38" s="175"/>
-      <c r="AC38" s="175"/>
-      <c r="AD38" s="175"/>
-      <c r="AE38" s="156"/>
-      <c r="AF38" s="157"/>
-      <c r="AG38" s="156"/>
-      <c r="AH38" s="156"/>
-      <c r="AI38" s="156"/>
-      <c r="AJ38" s="175"/>
-      <c r="AK38" s="175"/>
-      <c r="AL38" s="156"/>
-      <c r="AM38" s="156"/>
-      <c r="AN38" s="174"/>
-      <c r="AO38" s="175"/>
-      <c r="AP38" s="175"/>
-      <c r="AQ38" s="175"/>
-      <c r="AR38" s="175"/>
-      <c r="AS38" s="156"/>
-      <c r="AT38" s="157"/>
-      <c r="AU38" s="174"/>
-      <c r="AV38" s="160"/>
-      <c r="AW38" s="175"/>
-      <c r="AX38" s="176"/>
-      <c r="AY38" s="176"/>
-      <c r="AZ38" s="176"/>
-      <c r="BA38" s="61"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="138"/>
+      <c r="V38" s="138"/>
+      <c r="W38" s="138"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="145"/>
+      <c r="AA38" s="144"/>
+      <c r="AB38" s="138"/>
+      <c r="AC38" s="138"/>
+      <c r="AD38" s="138"/>
+      <c r="AE38" s="121"/>
+      <c r="AF38" s="122"/>
+      <c r="AG38" s="118"/>
+      <c r="AH38" s="118"/>
+      <c r="AI38" s="118"/>
+      <c r="AJ38" s="138"/>
+      <c r="AK38" s="138"/>
+      <c r="AL38" s="121"/>
+      <c r="AM38" s="121"/>
+      <c r="AN38" s="137"/>
+      <c r="AO38" s="138"/>
+      <c r="AP38" s="138"/>
+      <c r="AQ38" s="138"/>
+      <c r="AR38" s="138"/>
+      <c r="AS38" s="121"/>
+      <c r="AT38" s="122"/>
+      <c r="AU38" s="137"/>
+      <c r="AV38" s="124"/>
+      <c r="AW38" s="138"/>
+      <c r="AX38" s="139"/>
+      <c r="AY38" s="139"/>
+      <c r="AZ38" s="139"/>
+      <c r="BA38" s="60"/>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="123" t="s">
+      <c r="A39" s="169"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="99">
+      <c r="D39" s="176">
         <v>22</v>
       </c>
-      <c r="E39" s="146" t="s">
+      <c r="E39" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="70"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="4">
         <v>2</v>
       </c>
@@ -4584,15 +4583,15 @@
       <c r="X39" s="55"/>
       <c r="Y39" s="55"/>
       <c r="Z39" s="36"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="148"/>
+      <c r="AA39" s="114"/>
+      <c r="AB39" s="114"/>
+      <c r="AC39" s="114"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="49"/>
       <c r="AF39" s="50"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
+      <c r="AG39" s="179"/>
+      <c r="AH39" s="179"/>
+      <c r="AI39" s="179"/>
       <c r="AL39" s="55"/>
       <c r="AM39" s="55"/>
       <c r="AN39" s="36"/>
@@ -4611,14 +4610,14 @@
       <c r="BA39" s="7"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="129" t="s">
+      <c r="A40" s="169"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="70"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="5">
         <v>2</v>
       </c>
@@ -4641,14 +4640,14 @@
       <c r="Y40" s="51"/>
       <c r="Z40" s="38"/>
       <c r="AA40" s="39"/>
-      <c r="AB40" s="149"/>
-      <c r="AC40" s="149"/>
-      <c r="AD40" s="149"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="115"/>
+      <c r="AD40" s="115"/>
       <c r="AE40" s="51"/>
       <c r="AF40" s="52"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
       <c r="AL40" s="51"/>
@@ -4669,14 +4668,14 @@
       <c r="BA40" s="41"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="131" t="s">
+      <c r="A41" s="170"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="71"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="9">
         <v>3</v>
       </c>
@@ -4704,9 +4703,9 @@
       <c r="AD41" s="39"/>
       <c r="AE41" s="51"/>
       <c r="AF41" s="52"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
       <c r="AJ41" s="39"/>
       <c r="AK41" s="39"/>
       <c r="AL41" s="51"/>
@@ -4727,22 +4726,22 @@
       <c r="BA41" s="41"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="76">
+      <c r="D42" s="75">
         <v>23</v>
       </c>
-      <c r="E42" s="132" t="s">
+      <c r="E42" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="65" t="s">
         <v>101</v>
       </c>
       <c r="G42" s="9">
@@ -4758,15 +4757,15 @@
       <c r="P42" s="39"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="46"/>
-      <c r="S42" s="120" t="s">
+      <c r="S42" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="122"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="148"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="39"/>
       <c r="AB42" s="39"/>
@@ -4774,9 +4773,9 @@
       <c r="AD42" s="39"/>
       <c r="AE42" s="51"/>
       <c r="AF42" s="52"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
       <c r="AJ42" s="39"/>
       <c r="AK42" s="39"/>
       <c r="AL42" s="51"/>
@@ -4797,18 +4796,18 @@
       <c r="BA42" s="41"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107" t="s">
+      <c r="A43" s="169"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="93">
+      <c r="D43" s="160">
         <v>24</v>
       </c>
-      <c r="E43" s="134" t="s">
+      <c r="E43" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="67"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="4">
         <v>1</v>
       </c>
@@ -4822,13 +4821,13 @@
       <c r="P43" s="39"/>
       <c r="Q43" s="45"/>
       <c r="R43" s="46"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="81"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
@@ -4836,9 +4835,9 @@
       <c r="AD43" s="39"/>
       <c r="AE43" s="51"/>
       <c r="AF43" s="52"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="51"/>
-      <c r="AI43" s="51"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
       <c r="AJ43" s="39"/>
       <c r="AK43" s="39"/>
       <c r="AL43" s="51"/>
@@ -4859,14 +4858,14 @@
       <c r="BA43" s="41"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="131" t="s">
+      <c r="A44" s="170"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="67"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="9">
         <v>1</v>
       </c>
@@ -4880,13 +4879,13 @@
       <c r="P44" s="39"/>
       <c r="Q44" s="45"/>
       <c r="R44" s="46"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="81"/>
-      <c r="V44" s="81"/>
-      <c r="W44" s="81"/>
-      <c r="X44" s="81"/>
-      <c r="Y44" s="81"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
+      <c r="W44" s="80"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="80"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
@@ -4894,9 +4893,9 @@
       <c r="AD44" s="39"/>
       <c r="AE44" s="51"/>
       <c r="AF44" s="52"/>
-      <c r="AG44" s="51"/>
-      <c r="AH44" s="51"/>
-      <c r="AI44" s="51"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
       <c r="AJ44" s="39"/>
       <c r="AK44" s="39"/>
       <c r="AL44" s="51"/>
@@ -4917,22 +4916,22 @@
       <c r="BA44" s="41"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A45" s="103" t="s">
+      <c r="A45" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="93">
+      <c r="D45" s="160">
         <v>25</v>
       </c>
-      <c r="E45" s="134" t="s">
+      <c r="E45" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="67"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="4">
         <v>1</v>
       </c>
@@ -4946,13 +4945,13 @@
       <c r="P45" s="39"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="46"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
@@ -4960,9 +4959,9 @@
       <c r="AD45" s="39"/>
       <c r="AE45" s="51"/>
       <c r="AF45" s="52"/>
-      <c r="AG45" s="51"/>
-      <c r="AH45" s="51"/>
-      <c r="AI45" s="51"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
       <c r="AJ45" s="39"/>
       <c r="AK45" s="39"/>
       <c r="AL45" s="51"/>
@@ -4983,14 +4982,14 @@
       <c r="BA45" s="41"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A46" s="104"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="129" t="s">
+      <c r="A46" s="174"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="67"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="5">
         <v>1</v>
       </c>
@@ -5004,13 +5003,13 @@
       <c r="P46" s="39"/>
       <c r="Q46" s="45"/>
       <c r="R46" s="46"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="39"/>
       <c r="AB46" s="39"/>
@@ -5018,9 +5017,9 @@
       <c r="AD46" s="39"/>
       <c r="AE46" s="51"/>
       <c r="AF46" s="52"/>
-      <c r="AG46" s="51"/>
-      <c r="AH46" s="51"/>
-      <c r="AI46" s="51"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
       <c r="AJ46" s="39"/>
       <c r="AK46" s="39"/>
       <c r="AL46" s="51"/>
@@ -5041,14 +5040,14 @@
       <c r="BA46" s="41"/>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A47" s="104"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="131" t="s">
+      <c r="A47" s="174"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="67"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="9">
         <v>1</v>
       </c>
@@ -5062,13 +5061,13 @@
       <c r="P47" s="39"/>
       <c r="Q47" s="45"/>
       <c r="R47" s="46"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="39"/>
       <c r="AB47" s="39"/>
@@ -5076,9 +5075,9 @@
       <c r="AD47" s="39"/>
       <c r="AE47" s="51"/>
       <c r="AF47" s="52"/>
-      <c r="AG47" s="51"/>
-      <c r="AH47" s="51"/>
-      <c r="AI47" s="51"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
       <c r="AJ47" s="39"/>
       <c r="AK47" s="39"/>
       <c r="AL47" s="51"/>
@@ -5099,18 +5098,18 @@
       <c r="BA47" s="41"/>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A48" s="104"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="106" t="s">
+      <c r="A48" s="174"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="93">
+      <c r="D48" s="160">
         <v>26</v>
       </c>
-      <c r="E48" s="134" t="s">
+      <c r="E48" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="67"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="4">
         <v>1</v>
       </c>
@@ -5124,13 +5123,13 @@
       <c r="P48" s="39"/>
       <c r="Q48" s="45"/>
       <c r="R48" s="46"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="V48" s="81"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81"/>
-      <c r="Y48" s="81"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
       <c r="Z48" s="38"/>
       <c r="AA48" s="39"/>
       <c r="AB48" s="39"/>
@@ -5138,9 +5137,9 @@
       <c r="AD48" s="39"/>
       <c r="AE48" s="51"/>
       <c r="AF48" s="52"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
       <c r="AJ48" s="39"/>
       <c r="AK48" s="39"/>
       <c r="AL48" s="51"/>
@@ -5161,14 +5160,14 @@
       <c r="BA48" s="41"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A49" s="104"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="131" t="s">
+      <c r="A49" s="174"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="67"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="9">
         <v>1</v>
       </c>
@@ -5182,13 +5181,13 @@
       <c r="P49" s="39"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="46"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="39"/>
       <c r="AB49" s="39"/>
@@ -5196,9 +5195,9 @@
       <c r="AD49" s="39"/>
       <c r="AE49" s="51"/>
       <c r="AF49" s="52"/>
-      <c r="AG49" s="51"/>
-      <c r="AH49" s="51"/>
-      <c r="AI49" s="51"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
       <c r="AJ49" s="39"/>
       <c r="AK49" s="39"/>
       <c r="AL49" s="51"/>
@@ -5219,20 +5218,20 @@
       <c r="BA49" s="41"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A50" s="104"/>
-      <c r="B50" s="106" t="s">
+      <c r="A50" s="174"/>
+      <c r="B50" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="75">
         <v>27</v>
       </c>
-      <c r="E50" s="132" t="s">
+      <c r="E50" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="67"/>
+      <c r="F50" s="66"/>
       <c r="G50" s="31">
         <v>2</v>
       </c>
@@ -5253,18 +5252,18 @@
       <c r="W50" s="39"/>
       <c r="X50" s="51"/>
       <c r="Y50" s="51"/>
-      <c r="Z50" s="120" t="s">
+      <c r="Z50" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="AA50" s="121"/>
-      <c r="AB50" s="121"/>
-      <c r="AC50" s="121"/>
-      <c r="AD50" s="121"/>
-      <c r="AE50" s="121"/>
-      <c r="AF50" s="122"/>
-      <c r="AG50" s="51"/>
-      <c r="AH50" s="51"/>
-      <c r="AI50" s="51"/>
+      <c r="AA50" s="147"/>
+      <c r="AB50" s="147"/>
+      <c r="AC50" s="147"/>
+      <c r="AD50" s="147"/>
+      <c r="AE50" s="147"/>
+      <c r="AF50" s="148"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
       <c r="AJ50" s="39"/>
       <c r="AK50" s="39"/>
       <c r="AL50" s="51"/>
@@ -5285,18 +5284,18 @@
       <c r="BA50" s="41"/>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A51" s="104"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="57" t="s">
+      <c r="A51" s="174"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="78">
         <v>28</v>
       </c>
-      <c r="E51" s="131" t="s">
+      <c r="E51" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="67"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="9">
         <v>2</v>
       </c>
@@ -5317,16 +5316,16 @@
       <c r="W51" s="39"/>
       <c r="X51" s="51"/>
       <c r="Y51" s="51"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="81"/>
-      <c r="AB51" s="81"/>
-      <c r="AC51" s="81"/>
-      <c r="AD51" s="81"/>
-      <c r="AE51" s="81"/>
-      <c r="AF51" s="83"/>
-      <c r="AG51" s="51"/>
-      <c r="AH51" s="51"/>
-      <c r="AI51" s="51"/>
+      <c r="Z51" s="81"/>
+      <c r="AA51" s="80"/>
+      <c r="AB51" s="80"/>
+      <c r="AC51" s="80"/>
+      <c r="AD51" s="80"/>
+      <c r="AE51" s="80"/>
+      <c r="AF51" s="82"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
       <c r="AJ51" s="39"/>
       <c r="AK51" s="39"/>
       <c r="AL51" s="51"/>
@@ -5347,20 +5346,20 @@
       <c r="BA51" s="41"/>
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A52" s="104"/>
-      <c r="B52" s="109" t="s">
+      <c r="A52" s="174"/>
+      <c r="B52" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="158">
         <v>29</v>
       </c>
-      <c r="E52" s="132" t="s">
+      <c r="E52" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="67"/>
+      <c r="F52" s="66"/>
       <c r="G52" s="4">
         <v>2</v>
       </c>
@@ -5381,16 +5380,16 @@
       <c r="W52" s="39"/>
       <c r="X52" s="51"/>
       <c r="Y52" s="51"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="81"/>
-      <c r="AC52" s="81"/>
-      <c r="AD52" s="81"/>
-      <c r="AE52" s="81"/>
-      <c r="AF52" s="83"/>
-      <c r="AG52" s="51"/>
-      <c r="AH52" s="51"/>
-      <c r="AI52" s="51"/>
+      <c r="Z52" s="81"/>
+      <c r="AA52" s="80"/>
+      <c r="AB52" s="80"/>
+      <c r="AC52" s="80"/>
+      <c r="AD52" s="80"/>
+      <c r="AE52" s="80"/>
+      <c r="AF52" s="82"/>
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="26"/>
       <c r="AJ52" s="39"/>
       <c r="AK52" s="39"/>
       <c r="AL52" s="51"/>
@@ -5411,20 +5410,20 @@
       <c r="BA52" s="41"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A53" s="104"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="147" t="s">
+      <c r="A53" s="174"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="67"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="9">
         <v>2</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="62"/>
+      <c r="J53" s="61"/>
       <c r="L53" s="38"/>
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
@@ -5439,16 +5438,16 @@
       <c r="W53" s="39"/>
       <c r="X53" s="51"/>
       <c r="Y53" s="51"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="81"/>
-      <c r="AB53" s="81"/>
-      <c r="AC53" s="81"/>
-      <c r="AD53" s="81"/>
-      <c r="AE53" s="81"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="51"/>
-      <c r="AH53" s="51"/>
-      <c r="AI53" s="51"/>
+      <c r="Z53" s="81"/>
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="80"/>
+      <c r="AD53" s="80"/>
+      <c r="AE53" s="80"/>
+      <c r="AF53" s="82"/>
+      <c r="AG53" s="26"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="26"/>
       <c r="AJ53" s="39"/>
       <c r="AK53" s="39"/>
       <c r="AL53" s="51"/>
@@ -5469,20 +5468,20 @@
       <c r="BA53" s="41"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A54" s="104"/>
-      <c r="B54" s="102" t="s">
+      <c r="A54" s="174"/>
+      <c r="B54" s="172" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="79">
         <v>30</v>
       </c>
-      <c r="E54" s="147" t="s">
+      <c r="E54" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="67"/>
+      <c r="F54" s="66"/>
       <c r="G54" s="31">
         <v>3</v>
       </c>
@@ -5504,16 +5503,16 @@
       <c r="W54" s="39"/>
       <c r="X54" s="51"/>
       <c r="Y54" s="51"/>
-      <c r="Z54" s="82"/>
-      <c r="AA54" s="81"/>
-      <c r="AB54" s="81"/>
-      <c r="AC54" s="81"/>
-      <c r="AD54" s="81"/>
-      <c r="AE54" s="81"/>
-      <c r="AF54" s="83"/>
-      <c r="AG54" s="51"/>
-      <c r="AH54" s="51"/>
-      <c r="AI54" s="51"/>
+      <c r="Z54" s="81"/>
+      <c r="AA54" s="80"/>
+      <c r="AB54" s="80"/>
+      <c r="AC54" s="80"/>
+      <c r="AD54" s="80"/>
+      <c r="AE54" s="80"/>
+      <c r="AF54" s="82"/>
+      <c r="AG54" s="26"/>
+      <c r="AH54" s="26"/>
+      <c r="AI54" s="26"/>
       <c r="AJ54" s="39"/>
       <c r="AK54" s="39"/>
       <c r="AL54" s="51"/>
@@ -5534,18 +5533,18 @@
       <c r="BA54" s="41"/>
     </row>
     <row r="55" spans="1:53" x14ac:dyDescent="0.75">
-      <c r="A55" s="105"/>
-      <c r="B55" s="102"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="80">
+      <c r="D55" s="79">
         <v>31</v>
       </c>
-      <c r="E55" s="128" t="s">
+      <c r="E55" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="68"/>
+      <c r="F55" s="67"/>
       <c r="G55" s="9">
         <v>3</v>
       </c>
@@ -5566,16 +5565,16 @@
       <c r="W55" s="39"/>
       <c r="X55" s="51"/>
       <c r="Y55" s="51"/>
-      <c r="Z55" s="82"/>
-      <c r="AA55" s="81"/>
-      <c r="AB55" s="81"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="81"/>
-      <c r="AE55" s="81"/>
-      <c r="AF55" s="83"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="51"/>
-      <c r="AI55" s="51"/>
+      <c r="Z55" s="81"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="80"/>
+      <c r="AC55" s="80"/>
+      <c r="AD55" s="80"/>
+      <c r="AE55" s="80"/>
+      <c r="AF55" s="82"/>
+      <c r="AG55" s="26"/>
+      <c r="AH55" s="26"/>
+      <c r="AI55" s="26"/>
       <c r="AJ55" s="39"/>
       <c r="AK55" s="39"/>
       <c r="AL55" s="51"/>
@@ -5601,6 +5600,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="S42:Y42"/>
     <mergeCell ref="Z50:AF50"/>
     <mergeCell ref="Z28:AF28"/>
@@ -5617,52 +5662,6 @@
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
